--- a/配置文档/地图相关/图块相关.xlsx
+++ b/配置文档/地图相关/图块相关.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17805" windowHeight="7080"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="cfg_MapImageSet_地图图像集" sheetId="3" r:id="rId1"/>
@@ -235,6 +235,56 @@
       </xdr:spPr>
     </xdr:pic>
   </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="ID_764A8BE326274A46B0D383B40B10E88E" descr="工厂地板01"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17659350" y="5949315"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="ID_E53FDC4CF002421FBAD532A993EF844A" descr="深层工厂地板3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13980795" y="6174105"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
 </etc:cellImages>
 </file>
 
@@ -301,7 +351,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="175">
   <si>
     <t>第一行 为备注
 第二行 为字段导出设置
@@ -428,6 +478,21 @@
     <t>(10,5)</t>
   </si>
   <si>
+    <t>工厂地板</t>
+  </si>
+  <si>
+    <t>工厂第一层的图像集</t>
+  </si>
+  <si>
+    <t>(1,1)</t>
+  </si>
+  <si>
+    <t>深层工厂地板</t>
+  </si>
+  <si>
+    <t>工厂第二层的图像集</t>
+  </si>
+  <si>
     <t>地块id</t>
   </si>
   <si>
@@ -496,9 +561,6 @@
   </si>
   <si>
     <t>贫瘠废料地块</t>
-  </si>
-  <si>
-    <t>(1,1)</t>
   </si>
   <si>
     <t>标准废料地块</t>
@@ -1541,14 +1603,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1983,305 +2042,365 @@
   <sheetPr/>
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="43.375" customWidth="1"/>
-    <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="21.375" customWidth="1"/>
-    <col min="4" max="4" width="29.75" customWidth="1"/>
-    <col min="5" max="7" width="29" customWidth="1"/>
-    <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="12.5"/>
+    <col min="1" max="1" width="42.5" customWidth="1"/>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="20.375" customWidth="1"/>
+    <col min="5" max="5" width="15.375" customWidth="1"/>
+    <col min="6" max="6" width="24" customWidth="1"/>
+    <col min="7" max="7" width="21.875" customWidth="1"/>
+    <col min="8" max="8" width="15.5" customWidth="1"/>
+    <col min="9" max="9" width="14.125" customWidth="1"/>
     <col min="11" max="11" width="12.425"/>
   </cols>
   <sheetData>
-    <row r="1" s="25" customFormat="1" ht="142.5" spans="1:9">
-      <c r="A1" s="30" t="s">
+    <row r="1" s="24" customFormat="1" ht="142.5" spans="1:9">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="31" t="s">
+      <c r="B1" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="H1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="I1" s="31" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:9">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="14">
-        <v>1</v>
-      </c>
-      <c r="C2" s="14">
+      <c r="B2" s="13">
+        <v>1</v>
+      </c>
+      <c r="C2" s="13">
         <v>2</v>
       </c>
-      <c r="D2" s="35">
+      <c r="D2" s="34">
         <v>2</v>
       </c>
-      <c r="E2" s="35">
+      <c r="E2" s="34">
         <v>2</v>
       </c>
-      <c r="F2" s="35">
+      <c r="F2" s="34">
         <v>2</v>
       </c>
-      <c r="G2" s="35">
+      <c r="G2" s="34">
         <v>2</v>
       </c>
-      <c r="H2" s="35">
+      <c r="H2" s="34">
         <v>2</v>
       </c>
-      <c r="I2" s="35">
+      <c r="I2" s="34">
         <v>3</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:9">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="F3" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="35" t="s">
+      <c r="G3" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="35" t="s">
+      <c r="H3" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="35" t="s">
+      <c r="I3" s="34" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:9">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" s="26" customFormat="1" ht="75.4" spans="1:9">
-      <c r="A5" s="5">
-        <v>1</v>
-      </c>
-      <c r="B5" s="36">
-        <v>1</v>
-      </c>
-      <c r="C5" s="36" t="s">
+    <row r="5" s="25" customFormat="1" ht="75.4" spans="1:9">
+      <c r="A5" s="4">
+        <v>1</v>
+      </c>
+      <c r="B5" s="35">
+        <v>1</v>
+      </c>
+      <c r="C5" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="36">
-        <v>1</v>
-      </c>
-      <c r="F5" s="36">
+      <c r="E5" s="35">
+        <v>1</v>
+      </c>
+      <c r="F5" s="35">
         <v>36</v>
       </c>
-      <c r="G5" s="36">
-        <v>1</v>
-      </c>
-      <c r="H5" s="36" t="s">
+      <c r="G5" s="35">
+        <v>1</v>
+      </c>
+      <c r="H5" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="26" t="str">
+      <c r="I5" s="25" t="str">
         <f>_xlfn.DISPIMG("ID_5A24066537DA464E9986295F2B4A5A74",1)</f>
         <v>=DISPIMG("ID_5A24066537DA464E9986295F2B4A5A74",1)</v>
       </c>
     </row>
-    <row r="6" s="26" customFormat="1" ht="75" spans="1:11">
-      <c r="A6" s="5">
-        <v>1</v>
-      </c>
-      <c r="B6" s="36">
+    <row r="6" s="25" customFormat="1" ht="75" spans="1:11">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="35">
         <v>2</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="36" t="s">
+      <c r="D6" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="36">
-        <v>1</v>
-      </c>
-      <c r="F6" s="36">
-        <v>24</v>
-      </c>
-      <c r="G6" s="36">
+      <c r="E6" s="35">
+        <v>1</v>
+      </c>
+      <c r="F6" s="35">
+        <v>32</v>
+      </c>
+      <c r="G6" s="35">
         <v>2</v>
       </c>
-      <c r="H6" s="36" t="s">
+      <c r="H6" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="5" t="str">
+      <c r="I6" s="4" t="str">
         <f>_xlfn.DISPIMG("ID_EFB1EB7036594BD4AB9B7CBA32809B1B",1)</f>
         <v>=DISPIMG("ID_EFB1EB7036594BD4AB9B7CBA32809B1B",1)</v>
       </c>
-      <c r="K6" s="5"/>
-    </row>
-    <row r="7" s="27" customFormat="1" ht="43.7" spans="1:9">
-      <c r="A7" s="27">
-        <v>1</v>
-      </c>
-      <c r="B7" s="27">
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" s="26" customFormat="1" ht="43.7" spans="1:9">
+      <c r="A7" s="26">
+        <v>1</v>
+      </c>
+      <c r="B7" s="26">
         <v>3</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="27">
+      <c r="E7" s="26">
         <v>2</v>
       </c>
-      <c r="F7" s="27">
+      <c r="F7" s="26">
         <v>2</v>
       </c>
-      <c r="G7" s="27">
-        <v>1</v>
-      </c>
-      <c r="H7" s="27" t="s">
+      <c r="G7" s="26">
+        <v>1</v>
+      </c>
+      <c r="H7" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="I7" s="27" t="str">
+      <c r="I7" s="26" t="str">
         <f>_xlfn.DISPIMG("ID_DB2CF3B5B8BE4939858EB61D050FB732",1)</f>
         <v>=DISPIMG("ID_DB2CF3B5B8BE4939858EB61D050FB732",1)</v>
       </c>
     </row>
-    <row r="8" s="27" customFormat="1" ht="44" spans="1:9">
-      <c r="A8" s="27">
-        <v>1</v>
-      </c>
-      <c r="B8" s="27">
+    <row r="8" s="26" customFormat="1" ht="44" spans="1:9">
+      <c r="A8" s="26">
+        <v>1</v>
+      </c>
+      <c r="B8" s="26">
         <v>4</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="27">
+      <c r="E8" s="26">
         <v>2</v>
       </c>
-      <c r="F8" s="27">
+      <c r="F8" s="26">
         <v>2</v>
       </c>
-      <c r="G8" s="27">
-        <v>1</v>
-      </c>
-      <c r="H8" s="27" t="s">
+      <c r="G8" s="26">
+        <v>1</v>
+      </c>
+      <c r="H8" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="I8" s="26" t="str">
+      <c r="I8" s="25" t="str">
         <f>_xlfn.DISPIMG("ID_1B8D765690364953B9DD0A5FB0ECF439",1)</f>
         <v>=DISPIMG("ID_1B8D765690364953B9DD0A5FB0ECF439",1)</v>
       </c>
     </row>
-    <row r="9" s="28" customFormat="1" ht="37.6" spans="1:9">
-      <c r="A9" s="28">
-        <v>2</v>
-      </c>
-      <c r="B9" s="28">
+    <row r="9" s="27" customFormat="1" ht="37.6" spans="1:9">
+      <c r="A9" s="27">
+        <v>1</v>
+      </c>
+      <c r="B9" s="27">
         <v>5</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="28">
-        <v>1</v>
-      </c>
-      <c r="F9" s="28">
+      <c r="E9" s="27">
+        <v>1</v>
+      </c>
+      <c r="F9" s="27">
         <v>50</v>
       </c>
-      <c r="G9" s="28">
-        <v>1</v>
-      </c>
-      <c r="H9" s="28" t="s">
+      <c r="G9" s="27">
+        <v>1</v>
+      </c>
+      <c r="H9" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="28" t="str">
+      <c r="I9" s="27" t="str">
         <f>_xlfn.DISPIMG("ID_788E732D8C794339B84E4666740DF142",1)</f>
         <v>=DISPIMG("ID_788E732D8C794339B84E4666740DF142",1)</v>
       </c>
     </row>
-    <row r="10" s="29" customFormat="1" ht="14.25"/>
-    <row r="11" s="29" customFormat="1" ht="14.25"/>
-    <row r="12" s="29" customFormat="1" ht="14.25"/>
-    <row r="13" s="29" customFormat="1" ht="14.25"/>
-    <row r="14" s="29" customFormat="1" ht="14.25"/>
-    <row r="15" s="29" customFormat="1" ht="14.25"/>
+    <row r="10" s="28" customFormat="1" ht="17.25" spans="1:9">
+      <c r="A10" s="28">
+        <v>1</v>
+      </c>
+      <c r="B10" s="28">
+        <v>6</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="28">
+        <v>1</v>
+      </c>
+      <c r="F10" s="28">
+        <v>1</v>
+      </c>
+      <c r="G10" s="28">
+        <v>1</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="28" t="str">
+        <f>_xlfn.DISPIMG("ID_764A8BE326274A46B0D383B40B10E88E",1)</f>
+        <v>=DISPIMG("ID_764A8BE326274A46B0D383B40B10E88E",1)</v>
+      </c>
+    </row>
+    <row r="11" s="28" customFormat="1" ht="17.25" spans="1:9">
+      <c r="A11" s="28">
+        <v>1</v>
+      </c>
+      <c r="B11" s="28">
+        <v>7</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="28">
+        <v>1</v>
+      </c>
+      <c r="F11" s="28">
+        <v>1</v>
+      </c>
+      <c r="G11" s="28">
+        <v>1</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" s="28" t="str">
+        <f>_xlfn.DISPIMG("ID_E53FDC4CF002421FBAD532A993EF844A",1)</f>
+        <v>=DISPIMG("ID_E53FDC4CF002421FBAD532A993EF844A",1)</v>
+      </c>
+    </row>
+    <row r="12" s="28" customFormat="1" ht="14.25"/>
+    <row r="13" s="28" customFormat="1" ht="14.25"/>
+    <row r="14" s="28" customFormat="1" ht="14.25"/>
+    <row r="15" s="28" customFormat="1" ht="14.25"/>
     <row r="16" spans="1:12">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -2299,8 +2418,8 @@
   <sheetPr/>
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:C4"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2318,1302 +2437,1302 @@
   </cols>
   <sheetData>
     <row r="1" ht="142.5" spans="1:12">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="9" t="s">
+      <c r="B1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" s="3" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="13">
+        <v>1</v>
+      </c>
+      <c r="C2" s="13">
+        <v>2</v>
+      </c>
+      <c r="D2" s="13">
+        <v>2</v>
+      </c>
+      <c r="E2" s="14">
+        <v>2</v>
+      </c>
+      <c r="F2" s="14">
+        <v>2</v>
+      </c>
+      <c r="G2" s="14">
+        <v>0</v>
+      </c>
+      <c r="H2" s="14">
+        <v>0</v>
+      </c>
+      <c r="I2" s="14">
+        <v>2</v>
+      </c>
+      <c r="J2" s="14">
+        <v>2</v>
+      </c>
+      <c r="K2" s="14">
+        <v>2</v>
+      </c>
+      <c r="L2" s="14">
+        <v>3</v>
+      </c>
+      <c r="M2" s="14"/>
+    </row>
+    <row r="3" s="3" customFormat="1" ht="14.25" spans="1:12">
+      <c r="A3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="14">
+        <v>0</v>
+      </c>
+      <c r="H3" s="14">
+        <v>1</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" s="3" customFormat="1" ht="14.25" spans="1:12">
+      <c r="A4" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="12"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" s="3" customFormat="1" ht="16.8" customHeight="1" spans="1:12">
+      <c r="A5" s="16">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="3">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" s="4" customFormat="1" ht="14.25" spans="1:13">
-      <c r="A2" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="14">
-        <v>1</v>
-      </c>
-      <c r="C2" s="14">
-        <v>2</v>
-      </c>
-      <c r="D2" s="14">
-        <v>2</v>
-      </c>
-      <c r="E2" s="15">
-        <v>2</v>
-      </c>
-      <c r="F2" s="15">
-        <v>2</v>
-      </c>
-      <c r="G2" s="15">
-        <v>0</v>
-      </c>
-      <c r="H2" s="15">
-        <v>0</v>
-      </c>
-      <c r="I2" s="15">
-        <v>2</v>
-      </c>
-      <c r="J2" s="15">
-        <v>2</v>
-      </c>
-      <c r="K2" s="15">
-        <v>2</v>
-      </c>
-      <c r="L2" s="15">
-        <v>3</v>
-      </c>
-      <c r="M2" s="15"/>
-    </row>
-    <row r="3" s="4" customFormat="1" ht="14.25" spans="1:12">
-      <c r="A3" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="G3" s="15">
-        <v>0</v>
-      </c>
-      <c r="H3" s="15">
-        <v>1</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="K3" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="L3" s="15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" s="4" customFormat="1" ht="14.25" spans="1:12">
-      <c r="A4" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="L4" s="13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" s="4" customFormat="1" ht="16.8" customHeight="1" spans="1:12">
-      <c r="A5" s="17">
-        <v>1</v>
-      </c>
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" s="4">
-        <v>6</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F5" s="4">
-        <v>1</v>
-      </c>
-      <c r="G5" s="18">
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="17">
         <v>20000</v>
       </c>
-      <c r="H5" s="18">
-        <v>1</v>
-      </c>
-      <c r="I5" s="4">
+      <c r="H5" s="17">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3">
         <f t="shared" ref="I5:I22" si="0">G5*H5</f>
         <v>20000</v>
       </c>
-      <c r="J5" s="4" t="str">
+      <c r="J5" s="3" t="str">
         <f t="shared" ref="J5:J7" si="1">_xlfn.DISPIMG("ID_65270ABED6A143CA9A6E2DA6D5253C20",1)</f>
         <v>=DISPIMG("ID_65270ABED6A143CA9A6E2DA6D5253C20",1)</v>
       </c>
-      <c r="K5" s="4">
-        <v>1</v>
-      </c>
-      <c r="L5" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" s="4" customFormat="1" ht="16.35" spans="1:12">
-      <c r="A6" s="17">
-        <v>1</v>
-      </c>
-      <c r="B6" s="4">
+      <c r="K5" s="3">
+        <v>1</v>
+      </c>
+      <c r="L5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" s="3" customFormat="1" ht="16.35" spans="1:12">
+      <c r="A6" s="16">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3">
         <v>2</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="4">
+      <c r="C6" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="3">
         <v>6</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F6" s="4">
-        <v>1</v>
-      </c>
-      <c r="G6" s="18">
+      <c r="E6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="17">
         <v>24000</v>
       </c>
-      <c r="H6" s="18">
-        <v>1</v>
-      </c>
-      <c r="I6" s="4">
+      <c r="H6" s="17">
+        <v>1</v>
+      </c>
+      <c r="I6" s="3">
         <f t="shared" si="0"/>
         <v>24000</v>
       </c>
-      <c r="J6" s="4" t="str">
+      <c r="J6" s="3" t="str">
         <f t="shared" si="1"/>
         <v>=DISPIMG("ID_65270ABED6A143CA9A6E2DA6D5253C20",1)</v>
       </c>
-      <c r="K6" s="4">
-        <v>1</v>
-      </c>
-      <c r="L6" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" s="4" customFormat="1" ht="16.35" spans="1:12">
-      <c r="A7" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" s="4">
+      <c r="K6" s="3">
+        <v>1</v>
+      </c>
+      <c r="L6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" s="3" customFormat="1" ht="16.35" spans="1:12">
+      <c r="A7" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="3">
         <v>3</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" s="4">
+      <c r="C7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="3">
         <v>6</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F7" s="4">
-        <v>1</v>
-      </c>
-      <c r="G7" s="18">
+      <c r="E7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="17">
         <v>28000</v>
       </c>
-      <c r="H7" s="18">
-        <v>1</v>
-      </c>
-      <c r="I7" s="4">
+      <c r="H7" s="17">
+        <v>1</v>
+      </c>
+      <c r="I7" s="3">
         <f t="shared" si="0"/>
         <v>28000</v>
       </c>
-      <c r="J7" s="4" t="str">
+      <c r="J7" s="3" t="str">
         <f t="shared" si="1"/>
         <v>=DISPIMG("ID_65270ABED6A143CA9A6E2DA6D5253C20",1)</v>
       </c>
-      <c r="K7" s="4">
-        <v>1</v>
-      </c>
-      <c r="L7" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" s="4" customFormat="1" ht="16.8" spans="1:12">
-      <c r="A8" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B8" s="4">
+      <c r="K7" s="3">
+        <v>1</v>
+      </c>
+      <c r="L7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" s="3" customFormat="1" ht="16.8" spans="1:12">
+      <c r="A8" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="3">
         <v>4</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" s="4">
+      <c r="C8" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="3">
         <v>6</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" s="4">
+      <c r="E8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="3">
         <v>2</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="17">
         <v>20000</v>
       </c>
-      <c r="H8" s="18">
+      <c r="H8" s="17">
         <v>0.8</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="3">
         <f t="shared" si="0"/>
         <v>16000</v>
       </c>
-      <c r="J8" s="4" t="str">
+      <c r="J8" s="3" t="str">
         <f t="shared" ref="J8:J10" si="2">_xlfn.DISPIMG("ID_E31128960DEA4CBF9C4BDB2DC1750D18",1)</f>
         <v>=DISPIMG("ID_E31128960DEA4CBF9C4BDB2DC1750D18",1)</v>
       </c>
-      <c r="K8" s="4">
-        <v>1</v>
-      </c>
-      <c r="L8" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" s="4" customFormat="1" ht="16.8" spans="1:12">
-      <c r="A9" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B9" s="4">
+      <c r="K8" s="3">
+        <v>1</v>
+      </c>
+      <c r="L8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" s="3" customFormat="1" ht="16.8" spans="1:12">
+      <c r="A9" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="3">
         <v>5</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" s="4">
+      <c r="C9" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="3">
         <v>6</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" s="4">
+      <c r="E9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="3">
         <v>2</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="17">
         <v>24000</v>
       </c>
-      <c r="H9" s="18">
+      <c r="H9" s="17">
         <v>0.8</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="3">
         <f t="shared" si="0"/>
         <v>19200</v>
       </c>
-      <c r="J9" s="4" t="str">
+      <c r="J9" s="3" t="str">
         <f t="shared" si="2"/>
         <v>=DISPIMG("ID_E31128960DEA4CBF9C4BDB2DC1750D18",1)</v>
       </c>
-      <c r="K9" s="4">
-        <v>1</v>
-      </c>
-      <c r="L9" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" s="4" customFormat="1" ht="16.8" spans="1:12">
-      <c r="A10" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B10" s="4">
+      <c r="K9" s="3">
+        <v>1</v>
+      </c>
+      <c r="L9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" s="3" customFormat="1" ht="16.8" spans="1:12">
+      <c r="A10" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="3">
         <v>6</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10" s="4">
+      <c r="C10" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="3">
         <v>6</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F10" s="4">
+      <c r="E10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="3">
         <v>2</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="17">
         <v>28000</v>
       </c>
-      <c r="H10" s="18">
+      <c r="H10" s="17">
         <v>0.8</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="3">
         <f t="shared" si="0"/>
         <v>22400</v>
       </c>
-      <c r="J10" s="4" t="str">
+      <c r="J10" s="3" t="str">
         <f t="shared" si="2"/>
         <v>=DISPIMG("ID_E31128960DEA4CBF9C4BDB2DC1750D18",1)</v>
       </c>
-      <c r="K10" s="4">
-        <v>1</v>
-      </c>
-      <c r="L10" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" s="4" customFormat="1" ht="16.8" spans="1:12">
-      <c r="A11" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" s="4">
+      <c r="K10" s="3">
+        <v>1</v>
+      </c>
+      <c r="L10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" s="3" customFormat="1" ht="16.8" spans="1:12">
+      <c r="A11" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="3">
         <v>7</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11" s="4">
+      <c r="C11" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="3">
         <v>6</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F11" s="4">
+      <c r="E11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="3">
         <v>3</v>
       </c>
-      <c r="G11" s="18">
+      <c r="G11" s="17">
         <v>20000</v>
       </c>
-      <c r="H11" s="18">
+      <c r="H11" s="17">
         <v>0.1</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="3">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
-      <c r="J11" s="4" t="str">
+      <c r="J11" s="3" t="str">
         <f t="shared" ref="J11:J13" si="3">_xlfn.DISPIMG("ID_1533A4BF36C9491EA6F1B445A0988563",1)</f>
         <v>=DISPIMG("ID_1533A4BF36C9491EA6F1B445A0988563",1)</v>
       </c>
-      <c r="K11" s="4">
-        <v>1</v>
-      </c>
-      <c r="L11" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" s="4" customFormat="1" ht="16.8" spans="1:12">
-      <c r="A12" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12" s="4">
+      <c r="K11" s="3">
+        <v>1</v>
+      </c>
+      <c r="L11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" s="3" customFormat="1" ht="16.8" spans="1:12">
+      <c r="A12" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="3">
         <v>8</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12" s="4">
+      <c r="C12" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="3">
         <v>6</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F12" s="4">
+      <c r="E12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="3">
         <v>3</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G12" s="17">
         <v>24000</v>
       </c>
-      <c r="H12" s="18">
+      <c r="H12" s="17">
         <v>0.1</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="3">
         <f t="shared" si="0"/>
         <v>2400</v>
       </c>
-      <c r="J12" s="4" t="str">
+      <c r="J12" s="3" t="str">
         <f t="shared" si="3"/>
         <v>=DISPIMG("ID_1533A4BF36C9491EA6F1B445A0988563",1)</v>
       </c>
-      <c r="K12" s="4">
-        <v>1</v>
-      </c>
-      <c r="L12" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" s="4" customFormat="1" ht="16.8" spans="1:12">
-      <c r="A13" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" s="4">
+      <c r="K12" s="3">
+        <v>1</v>
+      </c>
+      <c r="L12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" s="3" customFormat="1" ht="16.8" spans="1:12">
+      <c r="A13" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="3">
         <v>9</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D13" s="4">
+      <c r="C13" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="3">
         <v>6</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F13" s="4">
+      <c r="E13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="3">
         <v>3</v>
       </c>
-      <c r="G13" s="18">
+      <c r="G13" s="17">
         <v>28000</v>
       </c>
-      <c r="H13" s="18">
+      <c r="H13" s="17">
         <v>0.1</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="3">
         <f t="shared" si="0"/>
         <v>2800</v>
       </c>
-      <c r="J13" s="4" t="str">
+      <c r="J13" s="3" t="str">
         <f t="shared" si="3"/>
         <v>=DISPIMG("ID_1533A4BF36C9491EA6F1B445A0988563",1)</v>
       </c>
-      <c r="K13" s="4">
-        <v>1</v>
-      </c>
-      <c r="L13" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" s="4" customFormat="1" ht="14.25" spans="1:12">
-      <c r="A14" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14" s="4">
+      <c r="K13" s="3">
+        <v>1</v>
+      </c>
+      <c r="L13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" s="3" customFormat="1" ht="14.25" spans="1:12">
+      <c r="A14" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="3">
         <v>10</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D14" s="4">
+      <c r="C14" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="3">
         <v>6</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F14" s="4">
-        <v>1</v>
-      </c>
-      <c r="G14" s="18">
+      <c r="E14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+      <c r="G14" s="17">
         <v>20000</v>
       </c>
-      <c r="H14" s="18">
+      <c r="H14" s="17">
         <v>1.5</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="3">
         <f t="shared" si="0"/>
         <v>30000</v>
       </c>
-      <c r="J14" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="K14" s="4">
-        <v>1</v>
-      </c>
-      <c r="L14" s="4">
+      <c r="J14" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K14" s="3">
+        <v>1</v>
+      </c>
+      <c r="L14" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="15" s="4" customFormat="1" ht="14.25" spans="1:12">
-      <c r="A15" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B15" s="4">
+    <row r="15" s="3" customFormat="1" ht="14.25" spans="1:12">
+      <c r="A15" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="3">
         <v>11</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" s="4">
+      <c r="C15" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="3">
         <v>6</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F15" s="4">
-        <v>1</v>
-      </c>
-      <c r="G15" s="18">
+      <c r="E15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1</v>
+      </c>
+      <c r="G15" s="17">
         <v>24000</v>
       </c>
-      <c r="H15" s="18">
+      <c r="H15" s="17">
         <v>1.5</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="3">
         <f t="shared" si="0"/>
         <v>36000</v>
       </c>
-      <c r="J15" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="K15" s="4">
-        <v>1</v>
-      </c>
-      <c r="L15" s="4">
+      <c r="J15" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K15" s="3">
+        <v>1</v>
+      </c>
+      <c r="L15" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="16" s="4" customFormat="1" ht="14.25" spans="1:12">
-      <c r="A16" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16" s="4">
+    <row r="16" s="3" customFormat="1" ht="14.25" spans="1:12">
+      <c r="A16" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="3">
         <v>12</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" s="4">
+      <c r="C16" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="3">
         <v>6</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F16" s="4">
-        <v>1</v>
-      </c>
-      <c r="G16" s="18">
+      <c r="E16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1</v>
+      </c>
+      <c r="G16" s="17">
         <v>28000</v>
       </c>
-      <c r="H16" s="18">
+      <c r="H16" s="17">
         <v>1.5</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="3">
         <f t="shared" si="0"/>
         <v>42000</v>
       </c>
-      <c r="J16" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="K16" s="4">
-        <v>1</v>
-      </c>
-      <c r="L16" s="4">
+      <c r="J16" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K16" s="3">
+        <v>1</v>
+      </c>
+      <c r="L16" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="17" s="4" customFormat="1" ht="14.25" spans="1:12">
-      <c r="A17" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B17" s="4">
+    <row r="17" s="3" customFormat="1" ht="14.25" spans="1:12">
+      <c r="A17" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="3">
         <v>13</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D17" s="4">
+      <c r="C17" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="3">
         <v>6</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F17" s="4">
+      <c r="E17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="3">
         <v>4</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="17">
         <v>20000</v>
       </c>
-      <c r="H17" s="18">
+      <c r="H17" s="17">
         <v>0.5</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="3">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="J17" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="K17" s="4">
-        <v>1</v>
-      </c>
-      <c r="L17" s="4">
+      <c r="J17" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K17" s="3">
+        <v>1</v>
+      </c>
+      <c r="L17" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="18" s="4" customFormat="1" ht="14.25" spans="1:12">
-      <c r="A18" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B18" s="4">
+    <row r="18" s="3" customFormat="1" ht="14.25" spans="1:12">
+      <c r="A18" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="3">
         <v>14</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D18" s="4">
+      <c r="C18" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="3">
         <v>6</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F18" s="4">
+      <c r="E18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="3">
         <v>4</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="17">
         <v>24000</v>
       </c>
-      <c r="H18" s="18">
+      <c r="H18" s="17">
         <v>0.5</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="3">
         <f t="shared" si="0"/>
         <v>12000</v>
       </c>
-      <c r="J18" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="K18" s="4">
-        <v>1</v>
-      </c>
-      <c r="L18" s="4">
+      <c r="J18" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K18" s="3">
+        <v>1</v>
+      </c>
+      <c r="L18" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="19" s="4" customFormat="1" ht="14.25" spans="1:12">
-      <c r="A19" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B19" s="4">
+    <row r="19" s="3" customFormat="1" ht="14.25" spans="1:12">
+      <c r="A19" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="3">
         <v>15</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D19" s="4">
+      <c r="C19" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="3">
         <v>6</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F19" s="4">
+      <c r="E19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="3">
         <v>4</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="17">
         <v>28000</v>
       </c>
-      <c r="H19" s="18">
+      <c r="H19" s="17">
         <v>0.5</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="3">
         <f t="shared" si="0"/>
         <v>14000</v>
       </c>
-      <c r="J19" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="K19" s="4">
-        <v>1</v>
-      </c>
-      <c r="L19" s="4">
+      <c r="J19" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K19" s="3">
+        <v>1</v>
+      </c>
+      <c r="L19" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="20" s="4" customFormat="1" ht="14.25" spans="1:12">
-      <c r="A20" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B20" s="4">
+    <row r="20" s="3" customFormat="1" ht="14.25" spans="1:12">
+      <c r="A20" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="3">
         <v>101</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="4">
+      <c r="C20" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="3">
         <v>6</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F20" s="4">
-        <v>1</v>
-      </c>
-      <c r="G20" s="18">
+      <c r="E20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1</v>
+      </c>
+      <c r="G20" s="17">
         <v>20000</v>
       </c>
-      <c r="H20" s="18">
-        <v>1</v>
-      </c>
-      <c r="I20" s="4">
+      <c r="H20" s="17">
+        <v>1</v>
+      </c>
+      <c r="I20" s="3">
         <f t="shared" si="0"/>
         <v>20000</v>
       </c>
-      <c r="J20" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="K20" s="4">
-        <v>1</v>
-      </c>
-      <c r="L20" s="4">
+      <c r="J20" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K20" s="3">
+        <v>1</v>
+      </c>
+      <c r="L20" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="21" s="4" customFormat="1" ht="14.25" spans="1:12">
-      <c r="A21" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B21" s="4">
+    <row r="21" s="3" customFormat="1" ht="14.25" spans="1:12">
+      <c r="A21" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="3">
         <v>102</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" s="4">
+      <c r="C21" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="3">
         <v>6</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F21" s="4">
-        <v>1</v>
-      </c>
-      <c r="G21" s="18">
+      <c r="E21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1</v>
+      </c>
+      <c r="G21" s="17">
         <v>24000</v>
       </c>
-      <c r="H21" s="18">
-        <v>1</v>
-      </c>
-      <c r="I21" s="4">
+      <c r="H21" s="17">
+        <v>1</v>
+      </c>
+      <c r="I21" s="3">
         <f t="shared" si="0"/>
         <v>24000</v>
       </c>
-      <c r="J21" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="K21" s="4">
-        <v>1</v>
-      </c>
-      <c r="L21" s="4">
+      <c r="J21" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K21" s="3">
+        <v>1</v>
+      </c>
+      <c r="L21" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="22" s="5" customFormat="1" spans="1:12">
-      <c r="A22" s="5">
-        <v>1</v>
-      </c>
-      <c r="B22" s="5">
+    <row r="22" s="4" customFormat="1" spans="1:12">
+      <c r="A22" s="4">
+        <v>1</v>
+      </c>
+      <c r="B22" s="4">
         <v>103</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D22" s="5">
+      <c r="C22" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="4">
         <v>6</v>
       </c>
-      <c r="E22" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F22" s="5">
-        <v>1</v>
-      </c>
-      <c r="G22" s="18">
+      <c r="E22" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" s="4">
+        <v>1</v>
+      </c>
+      <c r="G22" s="17">
         <v>28000</v>
       </c>
-      <c r="H22" s="19">
-        <v>1</v>
-      </c>
-      <c r="I22" s="5">
+      <c r="H22" s="18">
+        <v>1</v>
+      </c>
+      <c r="I22" s="4">
         <f t="shared" si="0"/>
         <v>28000</v>
       </c>
-      <c r="J22" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="K22" s="5">
-        <v>1</v>
-      </c>
-      <c r="L22" s="5">
+      <c r="J22" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="K22" s="4">
+        <v>1</v>
+      </c>
+      <c r="L22" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="23" s="4" customFormat="1" ht="14.25" spans="1:12">
-      <c r="A23" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B23" s="4">
+    <row r="23" s="3" customFormat="1" ht="14.25" spans="1:12">
+      <c r="A23" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="3">
         <v>201</v>
       </c>
-      <c r="C23" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="D23" s="4">
-        <v>1</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="L23" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="24" s="4" customFormat="1" ht="14.25" spans="1:12">
-      <c r="A24" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B24" s="4">
+      <c r="C23" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="3">
+        <v>1</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" s="3" customFormat="1" ht="14.25" spans="1:12">
+      <c r="A24" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="3">
         <v>202</v>
       </c>
-      <c r="C24" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="D24" s="4">
-        <v>1</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="L24" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="25" s="4" customFormat="1" ht="14.25" spans="1:12">
-      <c r="A25" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B25" s="4">
+      <c r="C24" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="3">
+        <v>1</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" s="3" customFormat="1" ht="14.25" spans="1:12">
+      <c r="A25" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="3">
         <v>203</v>
       </c>
-      <c r="C25" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="D25" s="4">
+      <c r="C25" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" s="3">
         <v>2</v>
       </c>
-      <c r="E25" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="K25" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="L25" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="26" s="4" customFormat="1" ht="14.25" spans="1:14">
-      <c r="A26" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B26" s="4">
+      <c r="E25" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" s="3" customFormat="1" ht="14.25" spans="1:14">
+      <c r="A26" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="3">
         <v>204</v>
       </c>
-      <c r="C26" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="D26" s="20">
+      <c r="C26" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="19">
         <v>2</v>
       </c>
-      <c r="E26" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="J26" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="K26" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="L26" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="M26" s="20"/>
-      <c r="N26" s="20"/>
-    </row>
-    <row r="27" s="6" customFormat="1" ht="14.25" spans="1:14">
-      <c r="A27" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="B27" s="6">
+      <c r="E26" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="J26" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+    </row>
+    <row r="27" s="5" customFormat="1" ht="14.25" spans="1:14">
+      <c r="A27" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" s="5">
         <v>205</v>
       </c>
-      <c r="C27" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D27" s="22">
+      <c r="C27" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" s="21">
         <v>3</v>
       </c>
-      <c r="E27" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="J27" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="K27" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="L27" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="M27" s="22"/>
-      <c r="N27" s="22"/>
+      <c r="E27" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J27" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L27" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
     </row>
     <row r="28" spans="3:14">
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="24"/>
-      <c r="N28" s="24"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
     </row>
     <row r="29" spans="3:14">
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="23"/>
-      <c r="M29" s="24"/>
-      <c r="N29" s="24"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="23"/>
     </row>
     <row r="30" spans="3:14">
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="23"/>
-      <c r="M30" s="24"/>
-      <c r="N30" s="24"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="23"/>
     </row>
     <row r="31" spans="3:14">
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="23"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="24"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="23"/>
     </row>
     <row r="32" spans="3:14">
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="24"/>
-      <c r="L32" s="24"/>
-      <c r="M32" s="24"/>
-      <c r="N32" s="24"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="23"/>
+      <c r="N32" s="23"/>
     </row>
     <row r="33" spans="3:14">
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
-      <c r="J33" s="24"/>
-      <c r="K33" s="24"/>
-      <c r="L33" s="24"/>
-      <c r="M33" s="24"/>
-      <c r="N33" s="24"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="23"/>
+      <c r="N33" s="23"/>
     </row>
     <row r="34" spans="3:14">
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="24"/>
-      <c r="M34" s="24"/>
-      <c r="N34" s="24"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="23"/>
     </row>
     <row r="35" spans="3:14">
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="23"/>
-      <c r="M35" s="24"/>
-      <c r="N35" s="24"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="23"/>
+      <c r="N35" s="23"/>
     </row>
     <row r="36" spans="3:14">
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="23"/>
-      <c r="K36" s="23"/>
-      <c r="L36" s="23"/>
-      <c r="M36" s="24"/>
-      <c r="N36" s="24"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="22"/>
+      <c r="M36" s="23"/>
+      <c r="N36" s="23"/>
     </row>
     <row r="37" spans="3:14">
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="24"/>
-      <c r="K37" s="24"/>
-      <c r="L37" s="24"/>
-      <c r="M37" s="24"/>
-      <c r="N37" s="24"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="23"/>
+      <c r="K37" s="23"/>
+      <c r="L37" s="23"/>
+      <c r="M37" s="23"/>
+      <c r="N37" s="23"/>
     </row>
     <row r="38" spans="3:14">
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="23"/>
-      <c r="K38" s="23"/>
-      <c r="L38" s="23"/>
-      <c r="M38" s="23"/>
-      <c r="N38" s="23"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="22"/>
+      <c r="M38" s="22"/>
+      <c r="N38" s="22"/>
     </row>
     <row r="39" spans="3:14">
-      <c r="C39" s="23"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="23"/>
-      <c r="K39" s="23"/>
-      <c r="L39" s="23"/>
-      <c r="M39" s="23"/>
-      <c r="N39" s="23"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="22"/>
+      <c r="M39" s="22"/>
+      <c r="N39" s="22"/>
     </row>
     <row r="40" spans="3:14">
-      <c r="C40" s="23"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
-      <c r="J40" s="23"/>
-      <c r="K40" s="23"/>
-      <c r="L40" s="23"/>
-      <c r="M40" s="23"/>
-      <c r="N40" s="23"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="22"/>
+      <c r="L40" s="22"/>
+      <c r="M40" s="22"/>
+      <c r="N40" s="22"/>
     </row>
     <row r="41" spans="3:14">
-      <c r="C41" s="23"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="23"/>
-      <c r="J41" s="23"/>
-      <c r="K41" s="23"/>
-      <c r="L41" s="23"/>
-      <c r="M41" s="23"/>
-      <c r="N41" s="23"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="22"/>
+      <c r="M41" s="22"/>
+      <c r="N41" s="22"/>
     </row>
     <row r="42" spans="3:14">
-      <c r="C42" s="23"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="23"/>
-      <c r="I42" s="23"/>
-      <c r="J42" s="23"/>
-      <c r="K42" s="23"/>
-      <c r="L42" s="23"/>
-      <c r="M42" s="23"/>
-      <c r="N42" s="23"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="22"/>
+      <c r="L42" s="22"/>
+      <c r="M42" s="22"/>
+      <c r="N42" s="22"/>
     </row>
     <row r="43" spans="3:14">
-      <c r="C43" s="23"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="23"/>
-      <c r="J43" s="23"/>
-      <c r="K43" s="23"/>
-      <c r="L43" s="23"/>
-      <c r="M43" s="23"/>
-      <c r="N43" s="23"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="22"/>
+      <c r="L43" s="22"/>
+      <c r="M43" s="22"/>
+      <c r="N43" s="22"/>
     </row>
     <row r="44" spans="3:14">
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="24"/>
-      <c r="H44" s="24"/>
-      <c r="I44" s="24"/>
-      <c r="J44" s="24"/>
-      <c r="K44" s="24"/>
-      <c r="L44" s="24"/>
-      <c r="M44" s="24"/>
-      <c r="N44" s="24"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="23"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="23"/>
+      <c r="K44" s="23"/>
+      <c r="L44" s="23"/>
+      <c r="M44" s="23"/>
+      <c r="N44" s="23"/>
     </row>
     <row r="45" spans="3:14">
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="23"/>
-      <c r="I45" s="23"/>
-      <c r="J45" s="23"/>
-      <c r="K45" s="23"/>
-      <c r="L45" s="23"/>
-      <c r="M45" s="24"/>
-      <c r="N45" s="24"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="22"/>
+      <c r="J45" s="22"/>
+      <c r="K45" s="22"/>
+      <c r="L45" s="22"/>
+      <c r="M45" s="23"/>
+      <c r="N45" s="23"/>
     </row>
     <row r="46" spans="3:14">
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="23"/>
-      <c r="I46" s="23"/>
-      <c r="J46" s="23"/>
-      <c r="K46" s="23"/>
-      <c r="L46" s="23"/>
-      <c r="M46" s="24"/>
-      <c r="N46" s="24"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="22"/>
+      <c r="I46" s="22"/>
+      <c r="J46" s="22"/>
+      <c r="K46" s="22"/>
+      <c r="L46" s="22"/>
+      <c r="M46" s="23"/>
+      <c r="N46" s="23"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -3641,25 +3760,25 @@
   <cols>
     <col min="1" max="2" width="13.75" customWidth="1"/>
     <col min="3" max="3" width="10.375" customWidth="1"/>
-    <col min="4" max="4" width="129.375" customWidth="1"/>
+    <col min="4" max="4" width="79.9166666666667" customWidth="1"/>
     <col min="5" max="5" width="28.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3667,16 +3786,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3684,16 +3803,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3704,13 +3823,13 @@
         <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3718,16 +3837,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3735,16 +3854,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3756,10 +3875,10 @@
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3767,16 +3886,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3784,16 +3903,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3801,16 +3920,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3818,16 +3937,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3835,16 +3954,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3852,13 +3971,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3866,10 +3985,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3877,10 +3996,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3888,10 +4007,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3899,10 +4018,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -3910,10 +4029,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -3921,10 +4040,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -3932,10 +4051,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -3943,10 +4062,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -3954,10 +4073,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -3965,10 +4084,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -3976,10 +4095,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -3987,10 +4106,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -3998,16 +4117,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -4015,16 +4134,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -4032,16 +4151,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -4049,16 +4168,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -4069,10 +4188,10 @@
         <v>23</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -4083,13 +4202,13 @@
         <v>22</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -4097,16 +4216,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -4114,16 +4233,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -4131,16 +4250,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -4148,16 +4267,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -4165,14 +4284,14 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -4180,28 +4299,28 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="3">
+      <c r="A38" s="2">
         <v>37</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>170</v>
+      <c r="B38" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/配置文档/地图相关/图块相关.xlsx
+++ b/配置文档/地图相关/图块相关.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="cfg_MapImageSet_地图图像集" sheetId="3" r:id="rId1"/>
@@ -285,6 +285,131 @@
       </xdr:spPr>
     </xdr:pic>
   </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="ID_84301341FFD14661A4D82C751D758559" descr="地图阴影"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12120880" y="8516620"/>
+          <a:ext cx="2281555" cy="2322830"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="ID_73C1BF64C0CB42D5B607FE41763EC19F" descr="逻辑地块"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12130405" y="6657975"/>
+          <a:ext cx="1522095" cy="1525905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="ID_8662436A7853464180835C6C73ADBE05" descr="工厂地板06"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12569825" y="8167370"/>
+          <a:ext cx="4184015" cy="4546600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="ID_97B8105DCDB8455182755E90D354E158" descr="资源1-Sheet"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12131040" y="9716135"/>
+          <a:ext cx="1141730" cy="377190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="ID_2C6F5277AF184A408A5C536CE7FFDA94" descr="沙漠地块6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12404090" y="10099040"/>
+          <a:ext cx="1139190" cy="1123315"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
 </etc:cellImages>
 </file>
 
@@ -351,7 +476,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="184">
   <si>
     <t>第一行 为备注
 第二行 为字段导出设置
@@ -381,10 +506,6 @@
     <t>地图可使用的最大序号</t>
   </si>
   <si>
-    <t xml:space="preserve">绘制层，高层覆盖低层
-</t>
-  </si>
-  <si>
     <t>地图图像集大小</t>
   </si>
   <si>
@@ -412,9 +533,6 @@
     <t>ImageSetMaxId</t>
   </si>
   <si>
-    <t>ImageSetLayer</t>
-  </si>
-  <si>
     <t>MapImageSize</t>
   </si>
   <si>
@@ -491,6 +609,39 @@
   </si>
   <si>
     <t>工厂第二层的图像集</t>
+  </si>
+  <si>
+    <t>逻辑地块</t>
+  </si>
+  <si>
+    <t>用来编辑地块属性</t>
+  </si>
+  <si>
+    <t>(4,4)</t>
+  </si>
+  <si>
+    <t>工厂区的地块</t>
+  </si>
+  <si>
+    <t>（11,12）</t>
+  </si>
+  <si>
+    <t>阴影</t>
+  </si>
+  <si>
+    <t>（6,6）</t>
+  </si>
+  <si>
+    <t>资源地块</t>
+  </si>
+  <si>
+    <t>(3,1)</t>
+  </si>
+  <si>
+    <t>沙漠地板</t>
+  </si>
+  <si>
+    <t>(3,3)</t>
   </si>
   <si>
     <t>地块id</t>
@@ -2040,10 +2191,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2054,13 +2205,12 @@
     <col min="4" max="4" width="20.375" customWidth="1"/>
     <col min="5" max="5" width="15.375" customWidth="1"/>
     <col min="6" max="6" width="24" customWidth="1"/>
-    <col min="7" max="7" width="21.875" customWidth="1"/>
-    <col min="8" max="8" width="15.5" customWidth="1"/>
-    <col min="9" max="9" width="14.125" customWidth="1"/>
-    <col min="11" max="11" width="12.425"/>
+    <col min="7" max="7" width="15.5" customWidth="1"/>
+    <col min="8" max="8" width="14.125" customWidth="1"/>
+    <col min="10" max="10" width="12.425"/>
   </cols>
   <sheetData>
-    <row r="1" s="24" customFormat="1" ht="142.5" spans="1:9">
+    <row r="1" s="24" customFormat="1" ht="142.5" spans="1:8">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -2079,19 +2229,16 @@
       <c r="F1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="31" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="31" t="s">
+    </row>
+    <row r="2" ht="14.25" spans="1:8">
+      <c r="A2" s="12" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="2" ht="14.25" spans="1:9">
-      <c r="A2" s="12" t="s">
-        <v>9</v>
       </c>
       <c r="B2" s="13">
         <v>1</v>
@@ -2112,82 +2259,71 @@
         <v>2</v>
       </c>
       <c r="H2" s="34">
-        <v>2</v>
-      </c>
-      <c r="I2" s="34">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:9">
+    <row r="3" ht="14.25" spans="1:8">
       <c r="A3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="C3" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="D3" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="E3" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="F3" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="G3" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="H3" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="34" t="s">
+    </row>
+    <row r="4" ht="14.25" spans="1:8">
+      <c r="A4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="34" t="s">
+      <c r="B4" s="12" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" ht="14.25" spans="1:9">
-      <c r="A4" s="12" t="s">
+      <c r="C4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>21</v>
-      </c>
       <c r="D4" s="12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G4" s="12" t="s">
         <v>20</v>
       </c>
       <c r="H4" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" s="25" customFormat="1" ht="75.4" spans="1:8">
+      <c r="A5" s="4"/>
+      <c r="B5" s="35">
+        <v>1</v>
+      </c>
+      <c r="C5" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="D5" s="35" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="5" s="25" customFormat="1" ht="75.4" spans="1:9">
-      <c r="A5" s="4">
-        <v>1</v>
-      </c>
-      <c r="B5" s="35">
-        <v>1</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="35" t="s">
-        <v>25</v>
       </c>
       <c r="E5" s="35">
         <v>1</v>
@@ -2195,29 +2331,24 @@
       <c r="F5" s="35">
         <v>36</v>
       </c>
-      <c r="G5" s="35">
-        <v>1</v>
-      </c>
-      <c r="H5" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="25" t="str">
+      <c r="G5" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="25" t="str">
         <f>_xlfn.DISPIMG("ID_5A24066537DA464E9986295F2B4A5A74",1)</f>
         <v>=DISPIMG("ID_5A24066537DA464E9986295F2B4A5A74",1)</v>
       </c>
     </row>
-    <row r="6" s="25" customFormat="1" ht="75" spans="1:11">
-      <c r="A6" s="4">
-        <v>1</v>
-      </c>
+    <row r="6" s="25" customFormat="1" ht="75" spans="1:10">
+      <c r="A6" s="4"/>
       <c r="B6" s="35">
         <v>2</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E6" s="35">
         <v>1</v>
@@ -2225,19 +2356,16 @@
       <c r="F6" s="35">
         <v>32</v>
       </c>
-      <c r="G6" s="35">
-        <v>2</v>
-      </c>
-      <c r="H6" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="4" t="str">
+      <c r="G6" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="4" t="str">
         <f>_xlfn.DISPIMG("ID_EFB1EB7036594BD4AB9B7CBA32809B1B",1)</f>
         <v>=DISPIMG("ID_EFB1EB7036594BD4AB9B7CBA32809B1B",1)</v>
       </c>
-      <c r="K6" s="4"/>
-    </row>
-    <row r="7" s="26" customFormat="1" ht="43.7" spans="1:9">
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" s="26" customFormat="1" ht="43.7" spans="1:8">
       <c r="A7" s="26">
         <v>1</v>
       </c>
@@ -2245,10 +2373,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E7" s="26">
         <v>2</v>
@@ -2256,18 +2384,15 @@
       <c r="F7" s="26">
         <v>2</v>
       </c>
-      <c r="G7" s="26">
-        <v>1</v>
-      </c>
-      <c r="H7" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" s="26" t="str">
+      <c r="G7" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="26" t="str">
         <f>_xlfn.DISPIMG("ID_DB2CF3B5B8BE4939858EB61D050FB732",1)</f>
         <v>=DISPIMG("ID_DB2CF3B5B8BE4939858EB61D050FB732",1)</v>
       </c>
     </row>
-    <row r="8" s="26" customFormat="1" ht="44" spans="1:9">
+    <row r="8" s="26" customFormat="1" ht="44" spans="1:8">
       <c r="A8" s="26">
         <v>1</v>
       </c>
@@ -2275,10 +2400,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E8" s="26">
         <v>2</v>
@@ -2286,29 +2411,23 @@
       <c r="F8" s="26">
         <v>2</v>
       </c>
-      <c r="G8" s="26">
-        <v>1</v>
-      </c>
-      <c r="H8" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" s="25" t="str">
+      <c r="G8" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="25" t="str">
         <f>_xlfn.DISPIMG("ID_1B8D765690364953B9DD0A5FB0ECF439",1)</f>
         <v>=DISPIMG("ID_1B8D765690364953B9DD0A5FB0ECF439",1)</v>
       </c>
     </row>
-    <row r="9" s="27" customFormat="1" ht="37.6" spans="1:9">
-      <c r="A9" s="27">
-        <v>1</v>
-      </c>
+    <row r="9" s="27" customFormat="1" ht="37.6" spans="2:8">
       <c r="B9" s="27">
         <v>5</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E9" s="27">
         <v>1</v>
@@ -2316,59 +2435,47 @@
       <c r="F9" s="27">
         <v>50</v>
       </c>
-      <c r="G9" s="27">
-        <v>1</v>
-      </c>
-      <c r="H9" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="I9" s="27" t="str">
+      <c r="G9" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="27" t="str">
         <f>_xlfn.DISPIMG("ID_788E732D8C794339B84E4666740DF142",1)</f>
         <v>=DISPIMG("ID_788E732D8C794339B84E4666740DF142",1)</v>
       </c>
     </row>
-    <row r="10" s="28" customFormat="1" ht="17.25" spans="1:9">
-      <c r="A10" s="28">
-        <v>1</v>
-      </c>
+    <row r="10" s="28" customFormat="1" ht="17.25" spans="2:8">
       <c r="B10" s="28">
         <v>6</v>
       </c>
       <c r="C10" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="28">
+        <v>1</v>
+      </c>
+      <c r="F10" s="28">
+        <v>1</v>
+      </c>
+      <c r="G10" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="28">
-        <v>1</v>
-      </c>
-      <c r="F10" s="28">
-        <v>1</v>
-      </c>
-      <c r="G10" s="28">
-        <v>1</v>
-      </c>
-      <c r="H10" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="I10" s="28" t="str">
+      <c r="H10" s="28" t="str">
         <f>_xlfn.DISPIMG("ID_764A8BE326274A46B0D383B40B10E88E",1)</f>
         <v>=DISPIMG("ID_764A8BE326274A46B0D383B40B10E88E",1)</v>
       </c>
     </row>
-    <row r="11" s="28" customFormat="1" ht="17.25" spans="1:9">
-      <c r="A11" s="28">
-        <v>1</v>
-      </c>
+    <row r="11" s="28" customFormat="1" ht="17.25" spans="2:8">
       <c r="B11" s="28">
         <v>7</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E11" s="28">
         <v>1</v>
@@ -2376,35 +2483,155 @@
       <c r="F11" s="28">
         <v>1</v>
       </c>
-      <c r="G11" s="28">
-        <v>1</v>
-      </c>
-      <c r="H11" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="I11" s="28" t="str">
+      <c r="G11" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="28" t="str">
         <f>_xlfn.DISPIMG("ID_E53FDC4CF002421FBAD532A993EF844A",1)</f>
         <v>=DISPIMG("ID_E53FDC4CF002421FBAD532A993EF844A",1)</v>
       </c>
     </row>
-    <row r="12" s="28" customFormat="1" ht="14.25"/>
-    <row r="13" s="28" customFormat="1" ht="14.25"/>
-    <row r="14" s="28" customFormat="1" ht="14.25"/>
-    <row r="15" s="28" customFormat="1" ht="14.25"/>
-    <row r="16" spans="1:12">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="H16" s="3"/>
+    <row r="12" s="28" customFormat="1" ht="84.95" spans="1:8">
+      <c r="A12" s="28">
+        <v>1</v>
+      </c>
+      <c r="B12" s="28">
+        <v>8</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="28">
+        <v>1</v>
+      </c>
+      <c r="F12" s="28">
+        <v>16</v>
+      </c>
+      <c r="G12" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" s="28" t="str">
+        <f>_xlfn.DISPIMG("ID_73C1BF64C0CB42D5B607FE41763EC19F",1)</f>
+        <v>=DISPIMG("ID_73C1BF64C0CB42D5B607FE41763EC19F",1)</v>
+      </c>
+    </row>
+    <row r="13" s="28" customFormat="1" ht="91.85" spans="1:8">
+      <c r="A13" s="28">
+        <v>1</v>
+      </c>
+      <c r="B13" s="28">
+        <v>9</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="28">
+        <v>1</v>
+      </c>
+      <c r="F13" s="28">
+        <v>132</v>
+      </c>
+      <c r="G13" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" s="28" t="str">
+        <f>_xlfn.DISPIMG("ID_8662436A7853464180835C6C73ADBE05",1)</f>
+        <v>=DISPIMG("ID_8662436A7853464180835C6C73ADBE05",1)</v>
+      </c>
+    </row>
+    <row r="14" s="28" customFormat="1" ht="86.2" spans="1:8">
+      <c r="A14" s="28">
+        <v>1</v>
+      </c>
+      <c r="B14" s="28">
+        <v>10</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="28">
+        <v>1</v>
+      </c>
+      <c r="F14" s="28">
+        <v>36</v>
+      </c>
+      <c r="G14" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14" s="28" t="str">
+        <f>_xlfn.DISPIMG("ID_84301341FFD14661A4D82C751D758559",1)</f>
+        <v>=DISPIMG("ID_84301341FFD14661A4D82C751D758559",1)</v>
+      </c>
+    </row>
+    <row r="15" s="28" customFormat="1" ht="29.5" spans="1:8">
+      <c r="A15" s="28">
+        <v>1</v>
+      </c>
+      <c r="B15" s="28">
+        <v>11</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="28">
+        <v>1</v>
+      </c>
+      <c r="F15" s="28">
+        <v>3</v>
+      </c>
+      <c r="G15" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" s="28" t="str">
+        <f>_xlfn.DISPIMG("ID_97B8105DCDB8455182755E90D354E158",1)</f>
+        <v>=DISPIMG("ID_97B8105DCDB8455182755E90D354E158",1)</v>
+      </c>
+    </row>
+    <row r="16" ht="83.6" spans="1:11">
+      <c r="A16" s="3">
+        <v>1</v>
+      </c>
+      <c r="B16" s="3">
+        <v>12</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>9</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H16" s="3" t="str">
+        <f>_xlfn.DISPIMG("ID_2C6F5277AF184A408A5C536CE7FFDA94",1)</f>
+        <v>=DISPIMG("ID_2C6F5277AF184A408A5C536CE7FFDA94",1)</v>
+      </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:I4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:H4">
       <formula1>数据类型!$B$2:$B$56</formula1>
     </dataValidation>
   </dataValidations>
@@ -2418,8 +2645,8 @@
   <sheetPr/>
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2441,42 +2668,42 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" s="3" customFormat="1" ht="14.25" spans="1:13">
       <c r="A2" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="13">
         <v>1</v>
@@ -2515,22 +2742,22 @@
     </row>
     <row r="3" s="3" customFormat="1" ht="14.25" spans="1:12">
       <c r="A3" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="G3" s="14">
         <v>0</v>
@@ -2539,50 +2766,50 @@
         <v>1</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="L3" s="14" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" s="3" customFormat="1" ht="14.25" spans="1:12">
       <c r="A4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>21</v>
-      </c>
       <c r="D4" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G4" s="12"/>
       <c r="H4" s="14"/>
       <c r="I4" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" s="3" customFormat="1" ht="16.8" customHeight="1" spans="1:12">
@@ -2593,13 +2820,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="D5" s="3">
         <v>6</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -2633,13 +2860,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D6" s="3">
         <v>6</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F6" s="3">
         <v>1</v>
@@ -2667,19 +2894,19 @@
     </row>
     <row r="7" s="3" customFormat="1" ht="16.35" spans="1:12">
       <c r="A7" s="16" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B7" s="3">
         <v>3</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="D7" s="3">
         <v>6</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F7" s="3">
         <v>1</v>
@@ -2707,19 +2934,19 @@
     </row>
     <row r="8" s="3" customFormat="1" ht="16.8" spans="1:12">
       <c r="A8" s="16" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B8" s="3">
         <v>4</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="D8" s="3">
         <v>6</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F8" s="3">
         <v>2</v>
@@ -2747,19 +2974,19 @@
     </row>
     <row r="9" s="3" customFormat="1" ht="16.8" spans="1:12">
       <c r="A9" s="16" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B9" s="3">
         <v>5</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="D9" s="3">
         <v>6</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F9" s="3">
         <v>2</v>
@@ -2787,19 +3014,19 @@
     </row>
     <row r="10" s="3" customFormat="1" ht="16.8" spans="1:12">
       <c r="A10" s="16" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B10" s="3">
         <v>6</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D10" s="3">
         <v>6</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F10" s="3">
         <v>2</v>
@@ -2827,19 +3054,19 @@
     </row>
     <row r="11" s="3" customFormat="1" ht="16.8" spans="1:12">
       <c r="A11" s="16" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B11" s="3">
         <v>7</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="D11" s="3">
         <v>6</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F11" s="3">
         <v>3</v>
@@ -2867,19 +3094,19 @@
     </row>
     <row r="12" s="3" customFormat="1" ht="16.8" spans="1:12">
       <c r="A12" s="16" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B12" s="3">
         <v>8</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="D12" s="3">
         <v>6</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F12" s="3">
         <v>3</v>
@@ -2907,19 +3134,19 @@
     </row>
     <row r="13" s="3" customFormat="1" ht="16.8" spans="1:12">
       <c r="A13" s="16" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B13" s="3">
         <v>9</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="D13" s="3">
         <v>6</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F13" s="3">
         <v>3</v>
@@ -2947,19 +3174,19 @@
     </row>
     <row r="14" s="3" customFormat="1" ht="14.25" spans="1:12">
       <c r="A14" s="16" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B14" s="3">
         <v>10</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="D14" s="3">
         <v>6</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F14" s="3">
         <v>1</v>
@@ -2975,7 +3202,7 @@
         <v>30000</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="K14" s="3">
         <v>1</v>
@@ -2986,19 +3213,19 @@
     </row>
     <row r="15" s="3" customFormat="1" ht="14.25" spans="1:12">
       <c r="A15" s="16" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B15" s="3">
         <v>11</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="D15" s="3">
         <v>6</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F15" s="3">
         <v>1</v>
@@ -3014,7 +3241,7 @@
         <v>36000</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="K15" s="3">
         <v>1</v>
@@ -3025,19 +3252,19 @@
     </row>
     <row r="16" s="3" customFormat="1" ht="14.25" spans="1:12">
       <c r="A16" s="16" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B16" s="3">
         <v>12</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="D16" s="3">
         <v>6</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F16" s="3">
         <v>1</v>
@@ -3053,7 +3280,7 @@
         <v>42000</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="K16" s="3">
         <v>1</v>
@@ -3064,19 +3291,19 @@
     </row>
     <row r="17" s="3" customFormat="1" ht="14.25" spans="1:12">
       <c r="A17" s="16" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B17" s="3">
         <v>13</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="D17" s="3">
         <v>6</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F17" s="3">
         <v>4</v>
@@ -3092,7 +3319,7 @@
         <v>10000</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="K17" s="3">
         <v>1</v>
@@ -3103,19 +3330,19 @@
     </row>
     <row r="18" s="3" customFormat="1" ht="14.25" spans="1:12">
       <c r="A18" s="16" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B18" s="3">
         <v>14</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="D18" s="3">
         <v>6</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F18" s="3">
         <v>4</v>
@@ -3131,7 +3358,7 @@
         <v>12000</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="K18" s="3">
         <v>1</v>
@@ -3142,19 +3369,19 @@
     </row>
     <row r="19" s="3" customFormat="1" ht="14.25" spans="1:12">
       <c r="A19" s="16" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B19" s="3">
         <v>15</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="D19" s="3">
         <v>6</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F19" s="3">
         <v>4</v>
@@ -3170,7 +3397,7 @@
         <v>14000</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="K19" s="3">
         <v>1</v>
@@ -3181,19 +3408,19 @@
     </row>
     <row r="20" s="3" customFormat="1" ht="14.25" spans="1:12">
       <c r="A20" s="16" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B20" s="3">
         <v>101</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="D20" s="3">
         <v>6</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F20" s="3">
         <v>1</v>
@@ -3209,7 +3436,7 @@
         <v>20000</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="K20" s="3">
         <v>1</v>
@@ -3220,19 +3447,19 @@
     </row>
     <row r="21" s="3" customFormat="1" ht="14.25" spans="1:12">
       <c r="A21" s="16" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B21" s="3">
         <v>102</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D21" s="3">
         <v>6</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F21" s="3">
         <v>1</v>
@@ -3248,7 +3475,7 @@
         <v>24000</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="K21" s="3">
         <v>1</v>
@@ -3265,13 +3492,13 @@
         <v>103</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="D22" s="4">
         <v>6</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F22" s="4">
         <v>1</v>
@@ -3287,7 +3514,7 @@
         <v>28000</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="K22" s="4">
         <v>1</v>
@@ -3298,194 +3525,194 @@
     </row>
     <row r="23" s="3" customFormat="1" ht="14.25" spans="1:12">
       <c r="A23" s="16" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B23" s="3">
         <v>201</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D23" s="3">
         <v>1</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" s="3" customFormat="1" ht="14.25" spans="1:12">
       <c r="A24" s="16" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B24" s="3">
         <v>202</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D24" s="3">
         <v>1</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" s="3" customFormat="1" ht="14.25" spans="1:12">
       <c r="A25" s="16" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B25" s="3">
         <v>203</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="D25" s="3">
         <v>2</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" s="3" customFormat="1" ht="14.25" spans="1:14">
       <c r="A26" s="16" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B26" s="3">
         <v>204</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="D26" s="19">
         <v>2</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="J26" s="19" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="M26" s="19"/>
       <c r="N26" s="19"/>
     </row>
     <row r="27" s="5" customFormat="1" ht="14.25" spans="1:14">
       <c r="A27" s="20" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="B27" s="5">
         <v>205</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="D27" s="21">
         <v>3</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="J27" s="21" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="M27" s="21"/>
       <c r="N27" s="21"/>
@@ -3766,19 +3993,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3786,16 +4013,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3803,16 +4030,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3820,16 +4047,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3837,16 +4064,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3854,16 +4081,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3871,14 +4098,14 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3886,16 +4113,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3903,16 +4130,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3920,16 +4147,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3937,16 +4164,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="D11" s="2" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3954,16 +4181,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3971,13 +4198,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3985,10 +4212,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3996,10 +4223,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -4007,10 +4234,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -4018,10 +4245,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -4029,10 +4256,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -4040,10 +4267,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -4051,10 +4278,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -4062,10 +4289,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -4073,10 +4300,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -4084,10 +4311,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -4095,10 +4322,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -4106,10 +4333,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -4117,16 +4344,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -4134,16 +4361,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -4151,16 +4378,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -4168,16 +4395,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -4185,13 +4412,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -4199,16 +4426,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -4216,16 +4443,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -4233,16 +4460,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -4250,16 +4477,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -4267,16 +4494,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -4284,14 +4511,14 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -4299,11 +4526,11 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -4311,16 +4538,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>

--- a/配置文档/地图相关/图块相关.xlsx
+++ b/配置文档/地图相关/图块相关.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
@@ -313,7 +313,7 @@
   <etc:cellImage>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="ID_73C1BF64C0CB42D5B607FE41763EC19F" descr="逻辑地块"/>
+        <xdr:cNvPr id="17" name="ID_5902D8F50B21428ABFB63993CA438846" descr="工厂地板05"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -326,8 +326,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12130405" y="6657975"/>
-          <a:ext cx="1522095" cy="1525905"/>
+          <a:off x="12263120" y="8108950"/>
+          <a:ext cx="4187825" cy="4566285"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -338,7 +338,7 @@
   <etc:cellImage>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="ID_8662436A7853464180835C6C73ADBE05" descr="工厂地板06"/>
+        <xdr:cNvPr id="23" name="ID_A97268E70E814D19A17507429F4C1880" descr="占位符"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -351,8 +351,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12569825" y="8167370"/>
-          <a:ext cx="4184015" cy="4546600"/>
+          <a:off x="12461875" y="11877675"/>
+          <a:ext cx="377190" cy="375920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -363,7 +363,7 @@
   <etc:cellImage>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="ID_97B8105DCDB8455182755E90D354E158" descr="资源1-Sheet"/>
+        <xdr:cNvPr id="25" name="ID_12DA68E94D564C9B86ED6ACFDFDFF3C3" descr="工厂部件1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -376,8 +376,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12131040" y="9716135"/>
-          <a:ext cx="1141730" cy="377190"/>
+          <a:off x="12545060" y="11838305"/>
+          <a:ext cx="3426460" cy="3391535"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -388,7 +388,7 @@
   <etc:cellImage>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="ID_2C6F5277AF184A408A5C536CE7FFDA94" descr="沙漠地块6"/>
+        <xdr:cNvPr id="26" name="ID_2EBD8AFA0097418CADEFD466A181A7C0" descr="地块效果层级阴影"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -401,8 +401,1408 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12404090" y="10099040"/>
-          <a:ext cx="1139190" cy="1123315"/>
+          <a:off x="12238355" y="11196320"/>
+          <a:ext cx="3427730" cy="3801110"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="ID_8F9CE1109CBE434A8C7A6A451CD5C48A" descr="沙漠地块6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12362815" y="10252710"/>
+          <a:ext cx="3427730" cy="1916430"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="ID_731065BDDFDA477199A185735A4D4350" descr="地图六边形主要关卡选框3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12076430" y="6901815"/>
+          <a:ext cx="3565525" cy="4118610"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="ID_AE6493A18B034DED84F9630F0FECB4F1" descr="工厂地板08"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12054840" y="17506950"/>
+          <a:ext cx="3423920" cy="3451225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="ID_2D50515CC48A453C914C998900B899A7" descr="工厂地板09"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12018645" y="18262600"/>
+          <a:ext cx="4568825" cy="1553210"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="ID_409EFD4A2A9E410E849F0A479FB0ACDD" descr="测试区"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12061825" y="7480935"/>
+          <a:ext cx="3569335" cy="4109085"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="ID_2C0BA9F4EEA94842B07BB5CA163328E5" descr="工厂悬崖"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12106275" y="21251545"/>
+          <a:ext cx="4561205" cy="1551940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="ID_8033F42892484127AA852D814FE04E77" descr="资源4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12223115" y="14930120"/>
+          <a:ext cx="3423285" cy="3455670"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="ID_1D91E21BB840407EBD70829FB8893A22" descr="逻辑地块"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12494260" y="10821035"/>
+          <a:ext cx="1519555" cy="1527175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="ID_94B926CE21D54075B81674379EA94C9E" descr="高层装饰"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12179300" y="24016335"/>
+          <a:ext cx="3423285" cy="3472180"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="ID_FAA60A501DD244459A0C5F4E44F36345" descr="墙壁阴影2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12399010" y="25337770"/>
+          <a:ext cx="4560570" cy="4633595"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="ID_21FF3137B7044B7BADEEEC08DF547A6D" descr="工厂地板17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12215495" y="21182330"/>
+          <a:ext cx="4558665" cy="1535430"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="ID_18CF6AAFA20C4CA4AAB7AEDDC8C705E3" descr="工厂装饰1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12201525" y="23194645"/>
+          <a:ext cx="3423285" cy="3462655"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="ID_366BED8BE75246DF849D416B8A2CEC74" descr="工厂地板07"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12084050" y="13080365"/>
+          <a:ext cx="3424555" cy="3827780"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="ID_5F92616397BD4903B25B77F3D9163801" descr="工厂悬崖2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12981305" y="23896320"/>
+          <a:ext cx="4560570" cy="1532255"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="ID_CCB5358E712A4E5DB2AB4BBF74002FF5" descr="地图六边形主要关卡选框5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12673330" y="10601960"/>
+          <a:ext cx="3566160" cy="4099560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="ID_8BDA9D91CC19458E854F35642579AA51" descr="地图六边形主要关卡选框4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12797790" y="10056495"/>
+          <a:ext cx="3566160" cy="4102735"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="ID_F285F4A06F25417188819BE9CD778B77" descr="地图六边形主要关卡选框6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId32"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12724765" y="12412980"/>
+          <a:ext cx="3566795" cy="4119245"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="ID_905FC3724FA74E2F9C74306221BD2251" descr="地图六边形主要关卡选框7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId33"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12820015" y="13731240"/>
+          <a:ext cx="3566795" cy="4117340"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="ID_F4165BF54078433E8C1A0846A99C8AF3" descr="地图六边形主要关卡选框10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId34"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12563475" y="17456785"/>
+          <a:ext cx="3566160" cy="4124960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="ID_25CD87777428465F8F8B8D3A81132EEF" descr="地图六边形主要关卡选框9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId35"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12665710" y="15919450"/>
+          <a:ext cx="3566160" cy="4120515"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="ID_0041FCB9D0494148816A06CD7370F0E9" descr="地图六边形主要关卡选框8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId36"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12665710" y="14946630"/>
+          <a:ext cx="3566160" cy="4126230"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="ID_BC87F172466D41A685446611F67A98C9" descr="未探明关卡"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId37"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12680950" y="9719310"/>
+          <a:ext cx="3566160" cy="4111625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="ID_552F982BB9A84CE39B08D931EAA9AAB3" descr="工厂地板18-Recovered"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId38"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12768580" y="30662245"/>
+          <a:ext cx="4561205" cy="1532890"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="ID_3BC98EFC03924D83A1389706A3772A53" descr="工厂深层地板1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId39"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12767945" y="36677600"/>
+          <a:ext cx="4569460" cy="1553210"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="ID_F242FC88CCB6417D9AEE0DF9725AFDF9" descr="工厂墙壁"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId40"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12607290" y="37118925"/>
+          <a:ext cx="4569460" cy="1553210"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="61" name="ID_02D8F267E60D4FB4A5F6F480B565094C" descr="墙壁阴影1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId41"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12849225" y="37475795"/>
+          <a:ext cx="4561205" cy="1547495"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="ID_B663FCC4B3AB44D3B821099316609951" descr="推荐规划区"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId42"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12365990" y="38665150"/>
+          <a:ext cx="4570095" cy="1533525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="ID_3F7491A1C758480B90FE1A84C902D3A8" descr="不可建造区域"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId43"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13068935" y="38663880"/>
+          <a:ext cx="4561205" cy="1542415"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="ID_18307AF68E06496CA6A110DFB4F00D67" descr="飞行敌人刷新点"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId44"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12936855" y="39406195"/>
+          <a:ext cx="4561205" cy="1544955"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="ID_680F2289BCB04687B9DABF7D80829035" descr="警戒线"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId45"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12827000" y="39738935"/>
+          <a:ext cx="4570095" cy="1553845"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="ID_F7817D681B8842369C6E62F983DCA994" descr="工厂地块03"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId46"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12614910" y="37968555"/>
+          <a:ext cx="4570095" cy="1553845"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="ID_69158AECBCC740C5A3BD17EB3BD08B04" descr="工厂地块02"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId47"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12740005" y="36288345"/>
+          <a:ext cx="4570095" cy="1553845"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="ID_54A17A884E744506A9DD6718ADFAF8FF" descr="宝石墙壁"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId48"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12717145" y="34834830"/>
+          <a:ext cx="4561205" cy="1535430"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="63" name="ID_F34DED19604C4EE59DC30EE796B226EB" descr="计算模块1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId49"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12856210" y="40134540"/>
+          <a:ext cx="4561205" cy="1546860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="ID_E5B1FD05FACB493EA76BFDF1A80FAAEA" descr="敌人刷新点"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId50"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12768580" y="38258750"/>
+          <a:ext cx="4561205" cy="1534160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="ID_C9B2FAF0139B4C8DA52AE2AD77D90E95" descr="腐烂地板"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId51"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12699365" y="40936545"/>
+          <a:ext cx="4568825" cy="1507490"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="ID_1419DFA532CC412E87BC743CB871ADFD" descr="岩石沙漠地板"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId52"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12545695" y="41565195"/>
+          <a:ext cx="4568825" cy="1496060"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="ID_073722960C474F6B8E4E21290BCC36CE" descr="破裂道路"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId53"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12582525" y="42491660"/>
+          <a:ext cx="4570095" cy="1503680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="64" name="ID_611FAEEDA292447BAC8D390B7F73C65F" descr="熔岩地板"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId54"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12349480" y="43715305"/>
+          <a:ext cx="4570095" cy="1506220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="66" name="ID_42228BAC81C04A61B6227103DB19F2A8" descr="黑曜石地板"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId55"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12349480" y="44095035"/>
+          <a:ext cx="4570095" cy="1501140"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="69" name="ID_B67FE283CDE347FDBC4B5EA6973DAEC9" descr="破损寰星科技地板"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId56"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12595860" y="45819060"/>
+          <a:ext cx="4570095" cy="1496695"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="70" name="ID_8451089FCB234E80A8B8EA18900DBE83" descr="寰星科技地板"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId57"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13086080" y="45679995"/>
+          <a:ext cx="4570095" cy="1496695"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="ID_4ECA01A05EC24CB8981E8A6E8CFFACB8" descr="酸化地板"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId58"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13221970" y="40496490"/>
+          <a:ext cx="4570095" cy="1532890"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="73" name="ID_6205220309514169BFC0D8687FB57BD9" descr="灰紫色污染地块"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId59"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12955270" y="45406310"/>
+          <a:ext cx="4570095" cy="1525270"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="74" name="ID_B17F2EF5C83F483B97D4CFAD4F9979B7" descr="熔岩区域"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId60"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12917170" y="44575095"/>
+          <a:ext cx="4570095" cy="1529080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="75" name="ID_045FFD4FF60C4DADBE11C8DDE112A208" descr="灰绿色污染地块"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId61"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13031470" y="45105320"/>
+          <a:ext cx="4570095" cy="1528445"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="76" name="ID_BD896E158730498E8FAEEFB82AF7F0E1" descr="防沙地面"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId62"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12877800" y="43497500"/>
+          <a:ext cx="4570095" cy="1530985"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="77" name="ID_A9851062B938465C8EF82C44263ACF9C" descr="道路"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId63"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12906375" y="42380535"/>
+          <a:ext cx="4570095" cy="1534795"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="78" name="ID_CCCCCCCC4ADC4EEE9705D538083F13FA" descr="红砖地面"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId64"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12589510" y="43157775"/>
+          <a:ext cx="4570095" cy="1525905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="79" name="ID_210C7FF9782141B68F07552CFA40F5FF" descr="岩石地板"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId65"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12813030" y="41621710"/>
+          <a:ext cx="4570095" cy="1519555"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="80" name="ID_5382950A829C4A398397304FC7D3CB26" descr="立场墙"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId66"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12857480" y="46581695"/>
+          <a:ext cx="4570095" cy="1508125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="81" name="ID_5E9D5A50BAA349BA8CEAD0B1C99BE5C6" descr="沙漠墙壁"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId67"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12526010" y="46776005"/>
+          <a:ext cx="4573270" cy="1499870"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="82" name="ID_1A31C68B558D4491804FB437BC5C13F5" descr="沙漠悬崖"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId68"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12448540" y="47199550"/>
+          <a:ext cx="4573270" cy="1499870"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="ID_FF19C7E99F37456586AA80ACD3D8AEE0" descr="工厂地块03"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId69"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12571095" y="47550070"/>
+          <a:ext cx="4573905" cy="1511935"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="ID_94FF0A72AA614F29AA3F3AC90E6DE516" descr="沙漠风化地板"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId70"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12785725" y="41302305"/>
+          <a:ext cx="4575810" cy="1548130"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="ID_771AEB6BE0D145EABA74588D0BD32CF9" descr="沙漠地板"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId71"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12606655" y="31541085"/>
+          <a:ext cx="4575810" cy="1548130"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -476,7 +1876,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="238">
   <si>
     <t>第一行 为备注
 第二行 为字段导出设置
@@ -506,7 +1906,8 @@
     <t>地图可使用的最大序号</t>
   </si>
   <si>
-    <t>地图图像集大小</t>
+    <t>地图图像集大小
+(横，纵)</t>
   </si>
   <si>
     <t>地图图像集</t>
@@ -587,6 +1988,45 @@
     <t>大地图的图像集2</t>
   </si>
   <si>
+    <t>测试区</t>
+  </si>
+  <si>
+    <t>(1,1)</t>
+  </si>
+  <si>
+    <t>六边形地块图像集3</t>
+  </si>
+  <si>
+    <t>大地图的图像集3</t>
+  </si>
+  <si>
+    <t>未探明关卡</t>
+  </si>
+  <si>
+    <t>大地图关卡贴图</t>
+  </si>
+  <si>
+    <t>1-1战役模式-常规-初启协议</t>
+  </si>
+  <si>
+    <t>1-2战役模式-常规-网格枢纽</t>
+  </si>
+  <si>
+    <t>1-3战役模式-常规-怨灵水晶</t>
+  </si>
+  <si>
+    <t>1-4战役模式-常规-棱镜之井</t>
+  </si>
+  <si>
+    <t>1-5战役模式-常规-钢铁洪流</t>
+  </si>
+  <si>
+    <t>1-6战役模式-常规-重炮破晓</t>
+  </si>
+  <si>
+    <t>1-7战役模式-常规-次元岛装置</t>
+  </si>
+  <si>
     <t>沙漠地块</t>
   </si>
   <si>
@@ -602,9 +2042,6 @@
     <t>工厂第一层的图像集</t>
   </si>
   <si>
-    <t>(1,1)</t>
-  </si>
-  <si>
     <t>深层工厂地板</t>
   </si>
   <si>
@@ -626,6 +2063,9 @@
     <t>（11,12）</t>
   </si>
   <si>
+    <t>（9,9）</t>
+  </si>
+  <si>
     <t>阴影</t>
   </si>
   <si>
@@ -635,13 +2075,136 @@
     <t>资源地块</t>
   </si>
   <si>
-    <t>(3,1)</t>
-  </si>
-  <si>
     <t>沙漠地板</t>
   </si>
   <si>
-    <t>(3,3)</t>
+    <t>(9,5)</t>
+  </si>
+  <si>
+    <t>地块效果层级阴影</t>
+  </si>
+  <si>
+    <t>(9,10)</t>
+  </si>
+  <si>
+    <t>工厂部件1</t>
+  </si>
+  <si>
+    <t>(9,9)</t>
+  </si>
+  <si>
+    <t>占位符</t>
+  </si>
+  <si>
+    <t>工厂墙壁</t>
+  </si>
+  <si>
+    <t>（12,4）</t>
+  </si>
+  <si>
+    <t>工厂悬崖</t>
+  </si>
+  <si>
+    <t>沙漠悬崖</t>
+  </si>
+  <si>
+    <t>工厂装饰</t>
+  </si>
+  <si>
+    <t>高层装饰1</t>
+  </si>
+  <si>
+    <t>宝石墙壁</t>
+  </si>
+  <si>
+    <t>墙壁阴影</t>
+  </si>
+  <si>
+    <t>工厂地板悬崖</t>
+  </si>
+  <si>
+    <t>工厂地板墙壁</t>
+  </si>
+  <si>
+    <t>工厂地板阴影</t>
+  </si>
+  <si>
+    <t>工厂破旧地板</t>
+  </si>
+  <si>
+    <t>敌方刷新点</t>
+  </si>
+  <si>
+    <t>不可建造区域</t>
+  </si>
+  <si>
+    <t>推荐规划区</t>
+  </si>
+  <si>
+    <t>飞行敌人刷新点</t>
+  </si>
+  <si>
+    <t>警戒线</t>
+  </si>
+  <si>
+    <t>计算模块</t>
+  </si>
+  <si>
+    <t>酸化地板</t>
+  </si>
+  <si>
+    <t>腐烂地板</t>
+  </si>
+  <si>
+    <t>沙漠风化地板</t>
+  </si>
+  <si>
+    <t>岩石地板</t>
+  </si>
+  <si>
+    <t>岩石沙漠地板</t>
+  </si>
+  <si>
+    <t>道路</t>
+  </si>
+  <si>
+    <t>破裂道路</t>
+  </si>
+  <si>
+    <t>红砖地面</t>
+  </si>
+  <si>
+    <t>防沙地面</t>
+  </si>
+  <si>
+    <t>熔岩地板</t>
+  </si>
+  <si>
+    <t>黑曜石地板</t>
+  </si>
+  <si>
+    <t>熔岩悬崖</t>
+  </si>
+  <si>
+    <t>灰绿色污染地块</t>
+  </si>
+  <si>
+    <t>灰紫色污染地块</t>
+  </si>
+  <si>
+    <t>寰星科技地板</t>
+  </si>
+  <si>
+    <t>破损寰星科技地板</t>
+  </si>
+  <si>
+    <t>立场墙</t>
+  </si>
+  <si>
+    <t>沙漠墙壁</t>
+  </si>
+  <si>
+    <t>工厂地板条纹</t>
   </si>
   <si>
     <t>地块id</t>
@@ -1754,7 +3317,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1827,11 +3390,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2191,48 +3751,50 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="42.5" customWidth="1"/>
-    <col min="2" max="2" width="16.625" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="20.375" customWidth="1"/>
-    <col min="5" max="5" width="15.375" customWidth="1"/>
-    <col min="6" max="6" width="24" customWidth="1"/>
-    <col min="7" max="7" width="15.5" customWidth="1"/>
-    <col min="8" max="8" width="14.125" customWidth="1"/>
-    <col min="10" max="10" width="12.425"/>
+    <col min="1" max="1" width="42.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="16.625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="27.5916666666667" style="3" customWidth="1"/>
+    <col min="4" max="4" width="20.375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="15.375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="24" style="3" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14.125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="9" style="3"/>
+    <col min="10" max="10" width="12.425" style="3"/>
+    <col min="11" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" s="24" customFormat="1" ht="142.5" spans="1:8">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="30" t="s">
+      <c r="B1" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="30" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2246,19 +3808,19 @@
       <c r="C2" s="13">
         <v>2</v>
       </c>
-      <c r="D2" s="34">
+      <c r="D2" s="33">
         <v>2</v>
       </c>
-      <c r="E2" s="34">
+      <c r="E2" s="33">
         <v>2</v>
       </c>
-      <c r="F2" s="34">
+      <c r="F2" s="33">
         <v>2</v>
       </c>
-      <c r="G2" s="34">
+      <c r="G2" s="33">
         <v>2</v>
       </c>
-      <c r="H2" s="34">
+      <c r="H2" s="33">
         <v>3</v>
       </c>
     </row>
@@ -2269,22 +3831,22 @@
       <c r="B3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="F3" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="34" t="s">
+      <c r="H3" s="33" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2314,320 +3876,1826 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" s="25" customFormat="1" ht="75.4" spans="1:8">
-      <c r="A5" s="4"/>
-      <c r="B5" s="35">
-        <v>1</v>
-      </c>
-      <c r="C5" s="35" t="s">
+    <row r="5" s="4" customFormat="1" ht="85.2" spans="2:8">
+      <c r="B5" s="34">
+        <v>1</v>
+      </c>
+      <c r="C5" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="35">
-        <v>1</v>
-      </c>
-      <c r="F5" s="35">
+      <c r="E5" s="34">
+        <v>1</v>
+      </c>
+      <c r="F5" s="34">
         <v>36</v>
       </c>
-      <c r="G5" s="35" t="s">
+      <c r="G5" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="25" t="str">
+      <c r="H5" s="4" t="str">
         <f>_xlfn.DISPIMG("ID_5A24066537DA464E9986295F2B4A5A74",1)</f>
         <v>=DISPIMG("ID_5A24066537DA464E9986295F2B4A5A74",1)</v>
       </c>
     </row>
-    <row r="6" s="25" customFormat="1" ht="75" spans="1:10">
-      <c r="A6" s="4"/>
-      <c r="B6" s="35">
+    <row r="6" s="4" customFormat="1" ht="167.25" spans="2:8">
+      <c r="B6" s="34">
         <v>2</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="35">
-        <v>1</v>
-      </c>
-      <c r="F6" s="35">
+      <c r="E6" s="34">
+        <v>1</v>
+      </c>
+      <c r="F6" s="34">
         <v>32</v>
       </c>
-      <c r="G6" s="35" t="s">
+      <c r="G6" s="34" t="s">
         <v>27</v>
       </c>
       <c r="H6" s="4" t="str">
         <f>_xlfn.DISPIMG("ID_EFB1EB7036594BD4AB9B7CBA32809B1B",1)</f>
         <v>=DISPIMG("ID_EFB1EB7036594BD4AB9B7CBA32809B1B",1)</v>
       </c>
-      <c r="J6" s="4"/>
-    </row>
-    <row r="7" s="26" customFormat="1" ht="43.7" spans="1:8">
-      <c r="A7" s="26">
-        <v>1</v>
-      </c>
-      <c r="B7" s="26">
+    </row>
+    <row r="7" s="25" customFormat="1" ht="50.35" spans="1:8">
+      <c r="A7" s="25">
+        <v>1</v>
+      </c>
+      <c r="B7" s="25">
         <v>3</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="26">
+      <c r="E7" s="25">
         <v>2</v>
       </c>
-      <c r="F7" s="26">
+      <c r="F7" s="25">
         <v>2</v>
       </c>
-      <c r="G7" s="26" t="s">
+      <c r="G7" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="26" t="str">
+      <c r="H7" s="25" t="str">
         <f>_xlfn.DISPIMG("ID_DB2CF3B5B8BE4939858EB61D050FB732",1)</f>
         <v>=DISPIMG("ID_DB2CF3B5B8BE4939858EB61D050FB732",1)</v>
       </c>
     </row>
-    <row r="8" s="26" customFormat="1" ht="44" spans="1:8">
-      <c r="A8" s="26">
-        <v>1</v>
-      </c>
-      <c r="B8" s="26">
+    <row r="8" s="25" customFormat="1" ht="50.65" spans="1:8">
+      <c r="A8" s="25">
+        <v>1</v>
+      </c>
+      <c r="B8" s="25">
         <v>4</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="26">
+      <c r="E8" s="25">
         <v>2</v>
       </c>
-      <c r="F8" s="26">
+      <c r="F8" s="25">
         <v>2</v>
       </c>
-      <c r="G8" s="26" t="s">
+      <c r="G8" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="25" t="str">
+      <c r="H8" s="4" t="str">
         <f>_xlfn.DISPIMG("ID_1B8D765690364953B9DD0A5FB0ECF439",1)</f>
         <v>=DISPIMG("ID_1B8D765690364953B9DD0A5FB0ECF439",1)</v>
       </c>
     </row>
-    <row r="9" s="27" customFormat="1" ht="37.6" spans="2:8">
-      <c r="B9" s="27">
+    <row r="9" s="25" customFormat="1" ht="97.2" spans="1:8">
+      <c r="A9" s="25">
+        <v>1</v>
+      </c>
+      <c r="B9" s="25">
+        <v>1000</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="25">
+        <v>2</v>
+      </c>
+      <c r="F9" s="25">
+        <v>1</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="4" t="str">
+        <f>_xlfn.DISPIMG("ID_409EFD4A2A9E410E849F0A479FB0ACDD",1)</f>
+        <v>=DISPIMG("ID_409EFD4A2A9E410E849F0A479FB0ACDD",1)</v>
+      </c>
+    </row>
+    <row r="10" s="25" customFormat="1" ht="97.5" spans="1:8">
+      <c r="A10" s="25">
+        <v>1</v>
+      </c>
+      <c r="B10" s="25">
+        <v>1001</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="25">
+        <v>2</v>
+      </c>
+      <c r="F10" s="25">
+        <v>1</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="4" t="str">
+        <f>_xlfn.DISPIMG("ID_731065BDDFDA477199A185735A4D4350",1)</f>
+        <v>=DISPIMG("ID_731065BDDFDA477199A185735A4D4350",1)</v>
+      </c>
+    </row>
+    <row r="11" s="25" customFormat="1" ht="97.35" spans="1:8">
+      <c r="A11" s="25">
+        <v>1</v>
+      </c>
+      <c r="B11" s="25">
+        <v>1100</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="25">
+        <v>2</v>
+      </c>
+      <c r="F11" s="25">
+        <v>1</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="4" t="str">
+        <f>_xlfn.DISPIMG("ID_BC87F172466D41A685446611F67A98C9",1)</f>
+        <v>=DISPIMG("ID_BC87F172466D41A685446611F67A98C9",1)</v>
+      </c>
+    </row>
+    <row r="12" s="25" customFormat="1" ht="97.15" spans="1:8">
+      <c r="A12" s="25">
+        <v>1</v>
+      </c>
+      <c r="B12" s="25">
+        <v>1101</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="25">
+        <v>2</v>
+      </c>
+      <c r="F12" s="25">
+        <v>1</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="4" t="str">
+        <f>_xlfn.DISPIMG("ID_8BDA9D91CC19458E854F35642579AA51",1)</f>
+        <v>=DISPIMG("ID_8BDA9D91CC19458E854F35642579AA51",1)</v>
+      </c>
+    </row>
+    <row r="13" s="25" customFormat="1" ht="97.05" spans="1:8">
+      <c r="A13" s="25">
+        <v>1</v>
+      </c>
+      <c r="B13" s="25">
+        <v>1102</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="25">
+        <v>2</v>
+      </c>
+      <c r="F13" s="25">
+        <v>1</v>
+      </c>
+      <c r="G13" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="4" t="str">
+        <f>_xlfn.DISPIMG("ID_CCB5358E712A4E5DB2AB4BBF74002FF5",1)</f>
+        <v>=DISPIMG("ID_CCB5358E712A4E5DB2AB4BBF74002FF5",1)</v>
+      </c>
+    </row>
+    <row r="14" s="25" customFormat="1" ht="97.5" spans="1:8">
+      <c r="A14" s="25">
+        <v>1</v>
+      </c>
+      <c r="B14" s="25">
+        <v>1103</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="25">
+        <v>2</v>
+      </c>
+      <c r="F14" s="25">
+        <v>1</v>
+      </c>
+      <c r="G14" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="4" t="str">
+        <f>_xlfn.DISPIMG("ID_F285F4A06F25417188819BE9CD778B77",1)</f>
+        <v>=DISPIMG("ID_F285F4A06F25417188819BE9CD778B77",1)</v>
+      </c>
+    </row>
+    <row r="15" s="25" customFormat="1" ht="97.45" spans="1:8">
+      <c r="A15" s="25">
+        <v>1</v>
+      </c>
+      <c r="B15" s="25">
+        <v>1104</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="25">
+        <v>2</v>
+      </c>
+      <c r="F15" s="25">
+        <v>1</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" s="4" t="str">
+        <f>_xlfn.DISPIMG("ID_905FC3724FA74E2F9C74306221BD2251",1)</f>
+        <v>=DISPIMG("ID_905FC3724FA74E2F9C74306221BD2251",1)</v>
+      </c>
+    </row>
+    <row r="16" s="25" customFormat="1" ht="97.7" spans="1:8">
+      <c r="A16" s="25">
+        <v>1</v>
+      </c>
+      <c r="B16" s="25">
+        <v>1105</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="25">
+        <v>2</v>
+      </c>
+      <c r="F16" s="25">
+        <v>1</v>
+      </c>
+      <c r="G16" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" s="4" t="str">
+        <f>_xlfn.DISPIMG("ID_0041FCB9D0494148816A06CD7370F0E9",1)</f>
+        <v>=DISPIMG("ID_0041FCB9D0494148816A06CD7370F0E9",1)</v>
+      </c>
+    </row>
+    <row r="17" s="25" customFormat="1" ht="97.55" spans="1:8">
+      <c r="A17" s="25">
+        <v>1</v>
+      </c>
+      <c r="B17" s="25">
+        <v>1106</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="25">
+        <v>2</v>
+      </c>
+      <c r="F17" s="25">
+        <v>1</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="4" t="str">
+        <f>_xlfn.DISPIMG("ID_25CD87777428465F8F8B8D3A81132EEF",1)</f>
+        <v>=DISPIMG("ID_25CD87777428465F8F8B8D3A81132EEF",1)</v>
+      </c>
+    </row>
+    <row r="18" s="25" customFormat="1" ht="97.65" spans="1:8">
+      <c r="A18" s="25">
+        <v>1</v>
+      </c>
+      <c r="B18" s="25">
+        <v>1107</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="25">
+        <v>2</v>
+      </c>
+      <c r="F18" s="25">
+        <v>1</v>
+      </c>
+      <c r="G18" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" s="4" t="str">
+        <f>_xlfn.DISPIMG("ID_F4165BF54078433E8C1A0846A99C8AF3",1)</f>
+        <v>=DISPIMG("ID_F4165BF54078433E8C1A0846A99C8AF3",1)</v>
+      </c>
+    </row>
+    <row r="19" s="26" customFormat="1" ht="43.6" spans="2:8">
+      <c r="B19" s="26">
         <v>5</v>
       </c>
-      <c r="C9" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="27">
-        <v>1</v>
-      </c>
-      <c r="F9" s="27">
+      <c r="C19" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="26">
+        <v>1</v>
+      </c>
+      <c r="F19" s="26">
         <v>50</v>
       </c>
-      <c r="G9" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" s="27" t="str">
+      <c r="G19" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="H19" s="26" t="str">
         <f>_xlfn.DISPIMG("ID_788E732D8C794339B84E4666740DF142",1)</f>
         <v>=DISPIMG("ID_788E732D8C794339B84E4666740DF142",1)</v>
       </c>
     </row>
-    <row r="10" s="28" customFormat="1" ht="17.25" spans="2:8">
-      <c r="B10" s="28">
+    <row r="20" s="27" customFormat="1" ht="17.25" spans="2:8">
+      <c r="B20" s="27">
         <v>6</v>
       </c>
-      <c r="C10" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="28">
-        <v>1</v>
-      </c>
-      <c r="F10" s="28">
-        <v>1</v>
-      </c>
-      <c r="G10" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" s="28" t="str">
+      <c r="C20" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="27">
+        <v>1</v>
+      </c>
+      <c r="F20" s="27">
+        <v>1</v>
+      </c>
+      <c r="G20" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="H20" s="27" t="str">
         <f>_xlfn.DISPIMG("ID_764A8BE326274A46B0D383B40B10E88E",1)</f>
         <v>=DISPIMG("ID_764A8BE326274A46B0D383B40B10E88E",1)</v>
       </c>
     </row>
-    <row r="11" s="28" customFormat="1" ht="17.25" spans="2:8">
-      <c r="B11" s="28">
+    <row r="21" s="27" customFormat="1" ht="17.25" spans="2:8">
+      <c r="B21" s="27">
         <v>7</v>
       </c>
-      <c r="C11" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="28">
-        <v>1</v>
-      </c>
-      <c r="F11" s="28">
-        <v>1</v>
-      </c>
-      <c r="G11" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="28" t="str">
+      <c r="C21" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="27">
+        <v>1</v>
+      </c>
+      <c r="F21" s="27">
+        <v>1</v>
+      </c>
+      <c r="G21" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="H21" s="27" t="str">
         <f>_xlfn.DISPIMG("ID_E53FDC4CF002421FBAD532A993EF844A",1)</f>
         <v>=DISPIMG("ID_E53FDC4CF002421FBAD532A993EF844A",1)</v>
       </c>
     </row>
-    <row r="12" s="28" customFormat="1" ht="84.95" spans="1:8">
-      <c r="A12" s="28">
-        <v>1</v>
-      </c>
-      <c r="B12" s="28">
+    <row r="22" s="27" customFormat="1" ht="85.15" spans="1:8">
+      <c r="A22" s="27">
+        <v>1</v>
+      </c>
+      <c r="B22" s="27">
         <v>8</v>
       </c>
-      <c r="C12" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="28">
-        <v>1</v>
-      </c>
-      <c r="F12" s="28">
+      <c r="C22" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="27">
+        <v>1</v>
+      </c>
+      <c r="F22" s="27">
         <v>16</v>
       </c>
-      <c r="G12" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="H12" s="28" t="str">
-        <f>_xlfn.DISPIMG("ID_73C1BF64C0CB42D5B607FE41763EC19F",1)</f>
-        <v>=DISPIMG("ID_73C1BF64C0CB42D5B607FE41763EC19F",1)</v>
-      </c>
-    </row>
-    <row r="13" s="28" customFormat="1" ht="91.85" spans="1:8">
-      <c r="A13" s="28">
-        <v>1</v>
-      </c>
-      <c r="B13" s="28">
+      <c r="G22" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="H22" s="27" t="str">
+        <f>_xlfn.DISPIMG("ID_1D91E21BB840407EBD70829FB8893A22",1)</f>
+        <v>=DISPIMG("ID_1D91E21BB840407EBD70829FB8893A22",1)</v>
+      </c>
+    </row>
+    <row r="23" s="27" customFormat="1" ht="92.2" spans="1:8">
+      <c r="A23" s="27">
+        <v>1</v>
+      </c>
+      <c r="B23" s="27">
         <v>9</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C23" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="27">
+        <v>1</v>
+      </c>
+      <c r="F23" s="27">
+        <v>132</v>
+      </c>
+      <c r="G23" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="H23" s="27" t="str">
+        <f>_xlfn.DISPIMG("ID_5902D8F50B21428ABFB63993CA438846",1)</f>
+        <v>=DISPIMG("ID_5902D8F50B21428ABFB63993CA438846",1)</v>
+      </c>
+    </row>
+    <row r="24" s="27" customFormat="1" ht="94.45" spans="1:8">
+      <c r="A24" s="27">
+        <v>1</v>
+      </c>
+      <c r="B24" s="27">
+        <v>15</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="27">
+        <v>1</v>
+      </c>
+      <c r="F24" s="27">
+        <v>81</v>
+      </c>
+      <c r="G24" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="H24" s="27" t="str">
+        <f>_xlfn.DISPIMG("ID_366BED8BE75246DF849D416B8A2CEC74",1)</f>
+        <v>=DISPIMG("ID_366BED8BE75246DF849D416B8A2CEC74",1)</v>
+      </c>
+    </row>
+    <row r="25" s="27" customFormat="1" ht="86.2" spans="1:8">
+      <c r="A25" s="27">
+        <v>1</v>
+      </c>
+      <c r="B25" s="27">
+        <v>10</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" s="27">
+        <v>1</v>
+      </c>
+      <c r="F25" s="27">
         <v>36</v>
       </c>
-      <c r="D13" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="28">
-        <v>1</v>
-      </c>
-      <c r="F13" s="28">
-        <v>132</v>
-      </c>
-      <c r="G13" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="H13" s="28" t="str">
-        <f>_xlfn.DISPIMG("ID_8662436A7853464180835C6C73ADBE05",1)</f>
-        <v>=DISPIMG("ID_8662436A7853464180835C6C73ADBE05",1)</v>
-      </c>
-    </row>
-    <row r="14" s="28" customFormat="1" ht="86.2" spans="1:8">
-      <c r="A14" s="28">
-        <v>1</v>
-      </c>
-      <c r="B14" s="28">
-        <v>10</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="28">
-        <v>1</v>
-      </c>
-      <c r="F14" s="28">
-        <v>36</v>
-      </c>
-      <c r="G14" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="H14" s="28" t="str">
+      <c r="G25" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="H25" s="27" t="str">
         <f>_xlfn.DISPIMG("ID_84301341FFD14661A4D82C751D758559",1)</f>
         <v>=DISPIMG("ID_84301341FFD14661A4D82C751D758559",1)</v>
       </c>
     </row>
-    <row r="15" s="28" customFormat="1" ht="29.5" spans="1:8">
-      <c r="A15" s="28">
-        <v>1</v>
-      </c>
-      <c r="B15" s="28">
+    <row r="26" s="27" customFormat="1" ht="85.5" spans="1:8">
+      <c r="A26" s="27">
+        <v>1</v>
+      </c>
+      <c r="B26" s="27">
         <v>11</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C26" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" s="27">
+        <v>1</v>
+      </c>
+      <c r="F26" s="3">
+        <v>81</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H26" s="27" t="str">
+        <f>_xlfn.DISPIMG("ID_8033F42892484127AA852D814FE04E77",1)</f>
+        <v>=DISPIMG("ID_8033F42892484127AA852D814FE04E77",1)</v>
+      </c>
+    </row>
+    <row r="27" ht="48.35" spans="1:8">
+      <c r="A27" s="3">
+        <v>1</v>
+      </c>
+      <c r="B27" s="3">
+        <v>12</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1</v>
+      </c>
+      <c r="F27" s="3">
+        <v>45</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" s="3" t="str">
+        <f>_xlfn.DISPIMG("ID_8F9CE1109CBE434A8C7A6A451CD5C48A",1)</f>
+        <v>=DISPIMG("ID_8F9CE1109CBE434A8C7A6A451CD5C48A",1)</v>
+      </c>
+    </row>
+    <row r="28" ht="93.7" spans="1:8">
+      <c r="A28" s="3">
+        <v>1</v>
+      </c>
+      <c r="B28" s="3">
+        <v>13</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="3">
+        <v>1</v>
+      </c>
+      <c r="F28" s="3">
+        <v>90</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H28" s="3" t="str">
+        <f>_xlfn.DISPIMG("ID_2EBD8AFA0097418CADEFD466A181A7C0",1)</f>
+        <v>=DISPIMG("ID_2EBD8AFA0097418CADEFD466A181A7C0",1)</v>
+      </c>
+    </row>
+    <row r="29" ht="83.9" spans="1:8">
+      <c r="A29" s="3">
+        <v>1</v>
+      </c>
+      <c r="B29" s="3">
+        <v>14</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" s="3">
+        <v>1</v>
+      </c>
+      <c r="F29" s="3">
+        <v>81</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H29" s="3" t="str">
+        <f>_xlfn.DISPIMG("ID_12DA68E94D564C9B86ED6ACFDFDFF3C3",1)</f>
+        <v>=DISPIMG("ID_12DA68E94D564C9B86ED6ACFDFDFF3C3",1)</v>
+      </c>
+    </row>
+    <row r="30" ht="31.85" spans="1:8">
+      <c r="A30" s="3">
+        <v>1</v>
+      </c>
+      <c r="B30" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E30" s="3">
+        <v>1</v>
+      </c>
+      <c r="F30" s="3">
+        <v>1</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H30" s="3" t="str">
+        <f>_xlfn.DISPIMG("ID_A97268E70E814D19A17507429F4C1880",1)</f>
+        <v>=DISPIMG("ID_A97268E70E814D19A17507429F4C1880",1)</v>
+      </c>
+    </row>
+    <row r="31" ht="85.4" spans="1:8">
+      <c r="A31" s="3">
+        <v>1</v>
+      </c>
+      <c r="B31" s="3">
+        <v>16</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="27">
+        <v>1</v>
+      </c>
+      <c r="F31" s="27">
+        <v>81</v>
+      </c>
+      <c r="G31" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="H31" s="3" t="str">
+        <f>_xlfn.DISPIMG("ID_AE6493A18B034DED84F9630F0FECB4F1",1)</f>
+        <v>=DISPIMG("ID_AE6493A18B034DED84F9630F0FECB4F1",1)</v>
+      </c>
+    </row>
+    <row r="32" ht="30.25" spans="1:8">
+      <c r="A32" s="3">
+        <v>1</v>
+      </c>
+      <c r="B32" s="3">
+        <v>17</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="27">
+        <v>1</v>
+      </c>
+      <c r="F32" s="3">
         <v>48</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="G32" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H32" s="3" t="str">
+        <f>_xlfn.DISPIMG("ID_2D50515CC48A453C914C998900B899A7",1)</f>
+        <v>=DISPIMG("ID_2D50515CC48A453C914C998900B899A7",1)</v>
+      </c>
+    </row>
+    <row r="33" ht="29.95" spans="1:8">
+      <c r="A33" s="3">
+        <v>1</v>
+      </c>
+      <c r="B33" s="3">
+        <v>18</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" s="27">
+        <v>1</v>
+      </c>
+      <c r="F33" s="3">
         <v>48</v>
       </c>
-      <c r="E15" s="28">
-        <v>1</v>
-      </c>
-      <c r="F15" s="28">
-        <v>3</v>
-      </c>
-      <c r="G15" s="28" t="s">
+      <c r="G33" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H33" s="3" t="str">
+        <f>_xlfn.DISPIMG("ID_552F982BB9A84CE39B08D931EAA9AAB3",1)</f>
+        <v>=DISPIMG("ID_552F982BB9A84CE39B08D931EAA9AAB3",1)</v>
+      </c>
+    </row>
+    <row r="34" ht="30" spans="1:8">
+      <c r="A34" s="3">
+        <v>1</v>
+      </c>
+      <c r="B34" s="3">
+        <v>19</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" s="27">
+        <v>1</v>
+      </c>
+      <c r="F34" s="3">
+        <v>48</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H34" s="3" t="str">
+        <f>_xlfn.DISPIMG("ID_21FF3137B7044B7BADEEEC08DF547A6D",1)</f>
+        <v>=DISPIMG("ID_21FF3137B7044B7BADEEEC08DF547A6D",1)</v>
+      </c>
+    </row>
+    <row r="35" ht="30.15" spans="1:8">
+      <c r="A35" s="3">
+        <v>1</v>
+      </c>
+      <c r="B35" s="3">
+        <v>20</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E35" s="27">
+        <v>1</v>
+      </c>
+      <c r="F35" s="3">
+        <v>48</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H35" s="3" t="str">
+        <f>_xlfn.DISPIMG("ID_771AEB6BE0D145EABA74588D0BD32CF9",1)</f>
+        <v>=DISPIMG("ID_771AEB6BE0D145EABA74588D0BD32CF9",1)</v>
+      </c>
+    </row>
+    <row r="36" ht="29.95" spans="1:8">
+      <c r="A36" s="3">
+        <v>1</v>
+      </c>
+      <c r="B36" s="3">
+        <v>21</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E36" s="27">
+        <v>1</v>
+      </c>
+      <c r="F36" s="3">
+        <v>48</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H36" s="3" t="str">
+        <f>_xlfn.DISPIMG("ID_5F92616397BD4903B25B77F3D9163801",1)</f>
+        <v>=DISPIMG("ID_5F92616397BD4903B25B77F3D9163801",1)</v>
+      </c>
+    </row>
+    <row r="37" ht="30.3" spans="1:8">
+      <c r="A37" s="3">
+        <v>1</v>
+      </c>
+      <c r="B37" s="3">
+        <v>22</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E37" s="27">
+        <v>1</v>
+      </c>
+      <c r="F37" s="3">
+        <v>48</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H37" s="3" t="str">
+        <f>_xlfn.DISPIMG("ID_2C0BA9F4EEA94842B07BB5CA163328E5",1)</f>
+        <v>=DISPIMG("ID_2C0BA9F4EEA94842B07BB5CA163328E5",1)</v>
+      </c>
+    </row>
+    <row r="38" ht="85.65" spans="1:8">
+      <c r="A38" s="3">
+        <v>1</v>
+      </c>
+      <c r="B38" s="3">
+        <v>23</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E38" s="27">
+        <v>1</v>
+      </c>
+      <c r="F38" s="3">
+        <v>81</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H38" s="3" t="str">
+        <f>_xlfn.DISPIMG("ID_18CF6AAFA20C4CA4AAB7AEDDC8C705E3",1)</f>
+        <v>=DISPIMG("ID_18CF6AAFA20C4CA4AAB7AEDDC8C705E3",1)</v>
+      </c>
+    </row>
+    <row r="39" ht="85.9" spans="1:8">
+      <c r="A39" s="3">
+        <v>1</v>
+      </c>
+      <c r="B39" s="3">
+        <v>24</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E39" s="27">
+        <v>1</v>
+      </c>
+      <c r="F39" s="3">
+        <v>81</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H39" s="3" t="str">
+        <f>_xlfn.DISPIMG("ID_94B926CE21D54075B81674379EA94C9E",1)</f>
+        <v>=DISPIMG("ID_94B926CE21D54075B81674379EA94C9E",1)</v>
+      </c>
+    </row>
+    <row r="40" ht="30" spans="1:8">
+      <c r="A40" s="3">
+        <v>1</v>
+      </c>
+      <c r="B40" s="3">
+        <v>25</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E40" s="27">
+        <v>1</v>
+      </c>
+      <c r="F40" s="3">
+        <v>48</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H40" s="3" t="str">
+        <f>_xlfn.DISPIMG("ID_54A17A884E744506A9DD6718ADFAF8FF",1)</f>
+        <v>=DISPIMG("ID_54A17A884E744506A9DD6718ADFAF8FF",1)</v>
+      </c>
+    </row>
+    <row r="41" ht="86.05" spans="1:8">
+      <c r="A41" s="3">
+        <v>1</v>
+      </c>
+      <c r="B41" s="3">
+        <v>26</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E41" s="27">
+        <v>1</v>
+      </c>
+      <c r="F41" s="3">
+        <v>81</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H41" s="3" t="str">
+        <f>_xlfn.DISPIMG("ID_FAA60A501DD244459A0C5F4E44F36345",1)</f>
+        <v>=DISPIMG("ID_FAA60A501DD244459A0C5F4E44F36345",1)</v>
+      </c>
+    </row>
+    <row r="42" ht="30.3" spans="1:8">
+      <c r="A42" s="3">
+        <v>1</v>
+      </c>
+      <c r="B42" s="3">
+        <v>27</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="H15" s="28" t="str">
-        <f>_xlfn.DISPIMG("ID_97B8105DCDB8455182755E90D354E158",1)</f>
-        <v>=DISPIMG("ID_97B8105DCDB8455182755E90D354E158",1)</v>
-      </c>
-    </row>
-    <row r="16" ht="83.6" spans="1:11">
-      <c r="A16" s="3">
-        <v>1</v>
-      </c>
-      <c r="B16" s="3">
-        <v>12</v>
-      </c>
-      <c r="C16" s="3" t="s">
+      <c r="D42" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E42" s="27">
+        <v>1</v>
+      </c>
+      <c r="F42" s="3">
+        <v>48</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H42" s="3" t="str">
+        <f>_xlfn.DISPIMG("ID_69158AECBCC740C5A3BD17EB3BD08B04",1)</f>
+        <v>=DISPIMG("ID_69158AECBCC740C5A3BD17EB3BD08B04",1)</v>
+      </c>
+    </row>
+    <row r="43" ht="30.25" spans="1:8">
+      <c r="A43" s="3">
+        <v>1</v>
+      </c>
+      <c r="B43" s="3">
+        <v>28</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E43" s="27">
+        <v>1</v>
+      </c>
+      <c r="F43" s="3">
+        <v>48</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H43" s="3" t="str">
+        <f>_xlfn.DISPIMG("ID_3BC98EFC03924D83A1389706A3772A53",1)</f>
+        <v>=DISPIMG("ID_3BC98EFC03924D83A1389706A3772A53",1)</v>
+      </c>
+    </row>
+    <row r="44" ht="30.25" spans="1:8">
+      <c r="A44" s="3">
+        <v>1</v>
+      </c>
+      <c r="B44" s="3">
+        <v>29</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E44" s="27">
+        <v>1</v>
+      </c>
+      <c r="F44" s="3">
+        <v>48</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H44" s="3" t="str">
+        <f>_xlfn.DISPIMG("ID_F242FC88CCB6417D9AEE0DF9725AFDF9",1)</f>
+        <v>=DISPIMG("ID_F242FC88CCB6417D9AEE0DF9725AFDF9",1)</v>
+      </c>
+    </row>
+    <row r="45" ht="30.2" spans="1:8">
+      <c r="A45" s="3">
+        <v>1</v>
+      </c>
+      <c r="B45" s="3">
+        <v>30</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E45" s="27">
+        <v>1</v>
+      </c>
+      <c r="F45" s="3">
+        <v>48</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H45" s="3" t="str">
+        <f>_xlfn.DISPIMG("ID_02D8F267E60D4FB4A5F6F480B565094C",1)</f>
+        <v>=DISPIMG("ID_02D8F267E60D4FB4A5F6F480B565094C",1)</v>
+      </c>
+    </row>
+    <row r="46" ht="30.3" spans="1:8">
+      <c r="A46" s="3">
+        <v>1</v>
+      </c>
+      <c r="B46" s="3">
+        <v>31</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E46" s="27">
+        <v>1</v>
+      </c>
+      <c r="F46" s="3">
+        <v>48</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H46" s="3" t="str">
+        <f>_xlfn.DISPIMG("ID_F7817D681B8842369C6E62F983DCA994",1)</f>
+        <v>=DISPIMG("ID_F7817D681B8842369C6E62F983DCA994",1)</v>
+      </c>
+    </row>
+    <row r="47" ht="29.95" spans="1:8">
+      <c r="A47" s="3">
+        <v>1</v>
+      </c>
+      <c r="B47" s="3">
+        <v>32</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E47" s="27">
+        <v>1</v>
+      </c>
+      <c r="F47" s="3">
+        <v>48</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H47" s="3" t="str">
+        <f>_xlfn.DISPIMG("ID_E5B1FD05FACB493EA76BFDF1A80FAAEA",1)</f>
+        <v>=DISPIMG("ID_E5B1FD05FACB493EA76BFDF1A80FAAEA",1)</v>
+      </c>
+    </row>
+    <row r="48" ht="30.1" spans="1:8">
+      <c r="A48" s="3">
+        <v>1</v>
+      </c>
+      <c r="B48" s="3">
+        <v>33</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E48" s="27">
+        <v>1</v>
+      </c>
+      <c r="F48" s="3">
+        <v>48</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H48" s="3" t="str">
+        <f>_xlfn.DISPIMG("ID_3F7491A1C758480B90FE1A84C902D3A8",1)</f>
+        <v>=DISPIMG("ID_3F7491A1C758480B90FE1A84C902D3A8",1)</v>
+      </c>
+    </row>
+    <row r="49" ht="29.9" spans="1:8">
+      <c r="A49" s="3">
+        <v>1</v>
+      </c>
+      <c r="B49" s="3">
+        <v>34</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E49" s="27">
+        <v>1</v>
+      </c>
+      <c r="F49" s="3">
+        <v>48</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H49" s="3" t="str">
+        <f>_xlfn.DISPIMG("ID_B663FCC4B3AB44D3B821099316609951",1)</f>
+        <v>=DISPIMG("ID_B663FCC4B3AB44D3B821099316609951",1)</v>
+      </c>
+    </row>
+    <row r="50" ht="30.15" spans="1:8">
+      <c r="A50" s="3">
+        <v>1</v>
+      </c>
+      <c r="B50" s="3">
+        <v>35</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E50" s="27">
+        <v>1</v>
+      </c>
+      <c r="F50" s="3">
+        <v>48</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H50" s="3" t="str">
+        <f>_xlfn.DISPIMG("ID_18307AF68E06496CA6A110DFB4F00D67",1)</f>
+        <v>=DISPIMG("ID_18307AF68E06496CA6A110DFB4F00D67",1)</v>
+      </c>
+    </row>
+    <row r="51" ht="30.3" spans="1:8">
+      <c r="A51" s="3">
+        <v>1</v>
+      </c>
+      <c r="B51" s="3">
+        <v>36</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E51" s="27">
+        <v>1</v>
+      </c>
+      <c r="F51" s="3">
+        <v>48</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H51" s="3" t="str">
+        <f>_xlfn.DISPIMG("ID_680F2289BCB04687B9DABF7D80829035",1)</f>
+        <v>=DISPIMG("ID_680F2289BCB04687B9DABF7D80829035",1)</v>
+      </c>
+    </row>
+    <row r="52" ht="30.2" spans="1:8">
+      <c r="A52" s="3">
+        <v>1</v>
+      </c>
+      <c r="B52" s="3">
+        <v>37</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E52" s="27">
+        <v>1</v>
+      </c>
+      <c r="F52" s="3">
+        <v>48</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H52" s="3" t="str">
+        <f>_xlfn.DISPIMG("ID_F34DED19604C4EE59DC30EE796B226EB",1)</f>
+        <v>=DISPIMG("ID_F34DED19604C4EE59DC30EE796B226EB",1)</v>
+      </c>
+    </row>
+    <row r="53" ht="29.9" spans="1:8">
+      <c r="A53" s="3">
+        <v>1</v>
+      </c>
+      <c r="B53" s="3">
+        <v>38</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E53" s="27">
+        <v>1</v>
+      </c>
+      <c r="F53" s="3">
+        <v>48</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H53" s="3" t="str">
+        <f>_xlfn.DISPIMG("ID_4ECA01A05EC24CB8981E8A6E8CFFACB8",1)</f>
+        <v>=DISPIMG("ID_4ECA01A05EC24CB8981E8A6E8CFFACB8",1)</v>
+      </c>
+    </row>
+    <row r="54" ht="29.45" spans="1:8">
+      <c r="A54" s="3">
+        <v>1</v>
+      </c>
+      <c r="B54" s="3">
+        <v>39</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E54" s="27">
+        <v>1</v>
+      </c>
+      <c r="F54" s="3">
+        <v>48</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H54" s="3" t="str">
+        <f>_xlfn.DISPIMG("ID_C9B2FAF0139B4C8DA52AE2AD77D90E95",1)</f>
+        <v>=DISPIMG("ID_C9B2FAF0139B4C8DA52AE2AD77D90E95",1)</v>
+      </c>
+    </row>
+    <row r="55" ht="30.15" spans="1:8">
+      <c r="A55" s="3">
+        <v>1</v>
+      </c>
+      <c r="B55" s="3">
+        <v>40</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E55" s="27">
+        <v>1</v>
+      </c>
+      <c r="F55" s="3">
+        <v>48</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H55" s="3" t="str">
+        <f>_xlfn.DISPIMG("ID_94FF0A72AA614F29AA3F3AC90E6DE516",1)</f>
+        <v>=DISPIMG("ID_94FF0A72AA614F29AA3F3AC90E6DE516",1)</v>
+      </c>
+    </row>
+    <row r="56" ht="29.65" spans="1:8">
+      <c r="A56" s="3">
+        <v>1</v>
+      </c>
+      <c r="B56" s="3">
+        <v>41</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E56" s="27">
+        <v>1</v>
+      </c>
+      <c r="F56" s="3">
+        <v>48</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H56" s="3" t="str">
+        <f>_xlfn.DISPIMG("ID_210C7FF9782141B68F07552CFA40F5FF",1)</f>
+        <v>=DISPIMG("ID_210C7FF9782141B68F07552CFA40F5FF",1)</v>
+      </c>
+    </row>
+    <row r="57" ht="29.25" spans="1:8">
+      <c r="A57" s="3">
+        <v>1</v>
+      </c>
+      <c r="B57" s="3">
+        <v>42</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E57" s="27">
+        <v>1</v>
+      </c>
+      <c r="F57" s="3">
+        <v>48</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H57" s="3" t="str">
+        <f>_xlfn.DISPIMG("ID_1419DFA532CC412E87BC743CB871ADFD",1)</f>
+        <v>=DISPIMG("ID_1419DFA532CC412E87BC743CB871ADFD",1)</v>
+      </c>
+    </row>
+    <row r="58" ht="29.95" spans="1:8">
+      <c r="A58" s="3">
+        <v>1</v>
+      </c>
+      <c r="B58" s="3">
+        <v>43</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E58" s="27">
+        <v>1</v>
+      </c>
+      <c r="F58" s="3">
+        <v>48</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H58" s="3" t="str">
+        <f>_xlfn.DISPIMG("ID_A9851062B938465C8EF82C44263ACF9C",1)</f>
+        <v>=DISPIMG("ID_A9851062B938465C8EF82C44263ACF9C",1)</v>
+      </c>
+    </row>
+    <row r="59" ht="29.35" spans="1:8">
+      <c r="A59" s="3">
+        <v>1</v>
+      </c>
+      <c r="B59" s="3">
+        <v>44</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E59" s="27">
+        <v>1</v>
+      </c>
+      <c r="F59" s="3">
+        <v>48</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H59" s="3" t="str">
+        <f>_xlfn.DISPIMG("ID_073722960C474F6B8E4E21290BCC36CE",1)</f>
+        <v>=DISPIMG("ID_073722960C474F6B8E4E21290BCC36CE",1)</v>
+      </c>
+    </row>
+    <row r="60" ht="29.75" spans="1:8">
+      <c r="A60" s="3">
+        <v>1</v>
+      </c>
+      <c r="B60" s="3">
+        <v>45</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E60" s="27">
+        <v>1</v>
+      </c>
+      <c r="F60" s="3">
+        <v>48</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H60" s="3" t="str">
+        <f>_xlfn.DISPIMG("ID_CCCCCCCC4ADC4EEE9705D538083F13FA",1)</f>
+        <v>=DISPIMG("ID_CCCCCCCC4ADC4EEE9705D538083F13FA",1)</v>
+      </c>
+    </row>
+    <row r="61" ht="29.85" spans="1:8">
+      <c r="A61" s="3">
+        <v>1</v>
+      </c>
+      <c r="B61" s="3">
+        <v>46</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E61" s="27">
+        <v>1</v>
+      </c>
+      <c r="F61" s="3">
+        <v>48</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H61" s="3" t="str">
+        <f>_xlfn.DISPIMG("ID_BD896E158730498E8FAEEFB82AF7F0E1",1)</f>
+        <v>=DISPIMG("ID_BD896E158730498E8FAEEFB82AF7F0E1",1)</v>
+      </c>
+    </row>
+    <row r="62" ht="29.4" spans="1:8">
+      <c r="A62" s="3">
+        <v>1</v>
+      </c>
+      <c r="B62" s="3">
+        <v>47</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E62" s="27">
+        <v>1</v>
+      </c>
+      <c r="F62" s="3">
+        <v>48</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H62" s="3" t="str">
+        <f>_xlfn.DISPIMG("ID_611FAEEDA292447BAC8D390B7F73C65F",1)</f>
+        <v>=DISPIMG("ID_611FAEEDA292447BAC8D390B7F73C65F",1)</v>
+      </c>
+    </row>
+    <row r="63" ht="29.3" spans="1:8">
+      <c r="A63" s="3">
+        <v>1</v>
+      </c>
+      <c r="B63" s="3">
+        <v>48</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E63" s="27">
+        <v>1</v>
+      </c>
+      <c r="F63" s="3">
+        <v>48</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H63" s="3" t="str">
+        <f>_xlfn.DISPIMG("ID_42228BAC81C04A61B6227103DB19F2A8",1)</f>
+        <v>=DISPIMG("ID_42228BAC81C04A61B6227103DB19F2A8",1)</v>
+      </c>
+    </row>
+    <row r="64" ht="29.85" spans="1:8">
+      <c r="A64" s="3">
+        <v>1</v>
+      </c>
+      <c r="B64" s="3">
+        <v>49</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E64" s="27">
+        <v>1</v>
+      </c>
+      <c r="F64" s="3">
+        <v>48</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H64" s="3" t="str">
+        <f>_xlfn.DISPIMG("ID_B17F2EF5C83F483B97D4CFAD4F9979B7",1)</f>
+        <v>=DISPIMG("ID_B17F2EF5C83F483B97D4CFAD4F9979B7",1)</v>
+      </c>
+    </row>
+    <row r="65" ht="29.8" spans="1:8">
+      <c r="A65" s="3">
+        <v>1</v>
+      </c>
+      <c r="B65" s="3">
         <v>50</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>9</v>
-      </c>
-      <c r="G16" s="3" t="s">
+      <c r="C65" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E65" s="27">
+        <v>1</v>
+      </c>
+      <c r="F65" s="3">
+        <v>48</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H65" s="3" t="str">
+        <f>_xlfn.DISPIMG("ID_045FFD4FF60C4DADBE11C8DDE112A208",1)</f>
+        <v>=DISPIMG("ID_045FFD4FF60C4DADBE11C8DDE112A208",1)</v>
+      </c>
+    </row>
+    <row r="66" ht="29.75" spans="1:8">
+      <c r="A66" s="3">
+        <v>1</v>
+      </c>
+      <c r="B66" s="3">
         <v>51</v>
       </c>
-      <c r="H16" s="3" t="str">
-        <f>_xlfn.DISPIMG("ID_2C6F5277AF184A408A5C536CE7FFDA94",1)</f>
-        <v>=DISPIMG("ID_2C6F5277AF184A408A5C536CE7FFDA94",1)</v>
-      </c>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
+      <c r="C66" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E66" s="27">
+        <v>1</v>
+      </c>
+      <c r="F66" s="3">
+        <v>48</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H66" s="3" t="str">
+        <f>_xlfn.DISPIMG("ID_6205220309514169BFC0D8687FB57BD9",1)</f>
+        <v>=DISPIMG("ID_6205220309514169BFC0D8687FB57BD9",1)</v>
+      </c>
+    </row>
+    <row r="67" ht="29.25" spans="1:8">
+      <c r="A67" s="3">
+        <v>1</v>
+      </c>
+      <c r="B67" s="3">
+        <v>52</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E67" s="27">
+        <v>1</v>
+      </c>
+      <c r="F67" s="3">
+        <v>48</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H67" s="3" t="str">
+        <f>_xlfn.DISPIMG("ID_8451089FCB234E80A8B8EA18900DBE83",1)</f>
+        <v>=DISPIMG("ID_8451089FCB234E80A8B8EA18900DBE83",1)</v>
+      </c>
+    </row>
+    <row r="68" ht="29.25" spans="1:8">
+      <c r="A68" s="3">
+        <v>1</v>
+      </c>
+      <c r="B68" s="3">
+        <v>53</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E68" s="27">
+        <v>1</v>
+      </c>
+      <c r="F68" s="3">
+        <v>48</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H68" s="3" t="str">
+        <f>_xlfn.DISPIMG("ID_B67FE283CDE347FDBC4B5EA6973DAEC9",1)</f>
+        <v>=DISPIMG("ID_B67FE283CDE347FDBC4B5EA6973DAEC9",1)</v>
+      </c>
+    </row>
+    <row r="69" ht="29.45" spans="1:8">
+      <c r="A69" s="3">
+        <v>1</v>
+      </c>
+      <c r="B69" s="3">
+        <v>54</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E69" s="27">
+        <v>1</v>
+      </c>
+      <c r="F69" s="3">
+        <v>48</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H69" s="3" t="str">
+        <f>_xlfn.DISPIMG("ID_5382950A829C4A398397304FC7D3CB26",1)</f>
+        <v>=DISPIMG("ID_5382950A829C4A398397304FC7D3CB26",1)</v>
+      </c>
+    </row>
+    <row r="70" ht="29.3" spans="1:8">
+      <c r="A70" s="3">
+        <v>1</v>
+      </c>
+      <c r="B70" s="3">
+        <v>55</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E70" s="27">
+        <v>1</v>
+      </c>
+      <c r="F70" s="3">
+        <v>48</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H70" s="3" t="str">
+        <f>_xlfn.DISPIMG("ID_5E9D5A50BAA349BA8CEAD0B1C99BE5C6",1)</f>
+        <v>=DISPIMG("ID_5E9D5A50BAA349BA8CEAD0B1C99BE5C6",1)</v>
+      </c>
+    </row>
+    <row r="71" ht="29.3" spans="1:8">
+      <c r="A71" s="3">
+        <v>1</v>
+      </c>
+      <c r="B71" s="3">
+        <v>56</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E71" s="27">
+        <v>1</v>
+      </c>
+      <c r="F71" s="3">
+        <v>48</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H71" s="3" t="str">
+        <f>_xlfn.DISPIMG("ID_1A31C68B558D4491804FB437BC5C13F5",1)</f>
+        <v>=DISPIMG("ID_1A31C68B558D4491804FB437BC5C13F5",1)</v>
+      </c>
+    </row>
+    <row r="72" ht="29.5" spans="1:8">
+      <c r="A72" s="3">
+        <v>1</v>
+      </c>
+      <c r="B72" s="3">
+        <v>57</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E72" s="27">
+        <v>1</v>
+      </c>
+      <c r="F72" s="3">
+        <v>48</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H72" s="3" t="str">
+        <f>_xlfn.DISPIMG("ID_FF19C7E99F37456586AA80ACD3D8AEE0",1)</f>
+        <v>=DISPIMG("ID_FF19C7E99F37456586AA80ACD3D8AEE0",1)</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -2646,7 +5714,7 @@
   <dimension ref="A1:N46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2668,37 +5736,37 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>52</v>
+        <v>106</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>56</v>
+        <v>110</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>57</v>
+        <v>111</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>59</v>
+        <v>113</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" s="3" customFormat="1" ht="14.25" spans="1:13">
@@ -2745,19 +5813,19 @@
         <v>9</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>63</v>
+        <v>117</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>65</v>
+        <v>119</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>66</v>
+        <v>120</v>
       </c>
       <c r="G3" s="14">
         <v>0</v>
@@ -2766,16 +5834,16 @@
         <v>1</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>67</v>
+        <v>121</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>68</v>
+        <v>122</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>69</v>
+        <v>123</v>
       </c>
       <c r="L3" s="14" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" s="3" customFormat="1" ht="14.25" spans="1:12">
@@ -2792,7 +5860,7 @@
         <v>18</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>18</v>
@@ -2806,7 +5874,7 @@
         <v>21</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>72</v>
+        <v>126</v>
       </c>
       <c r="L4" s="12" t="s">
         <v>18</v>
@@ -2820,13 +5888,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D5" s="3">
         <v>6</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -2860,13 +5928,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="D6" s="3">
         <v>6</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F6" s="3">
         <v>1</v>
@@ -2894,19 +5962,19 @@
     </row>
     <row r="7" s="3" customFormat="1" ht="16.35" spans="1:12">
       <c r="A7" s="16" t="s">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="B7" s="3">
         <v>3</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="D7" s="3">
         <v>6</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F7" s="3">
         <v>1</v>
@@ -2934,19 +6002,19 @@
     </row>
     <row r="8" s="3" customFormat="1" ht="16.8" spans="1:12">
       <c r="A8" s="16" t="s">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="B8" s="3">
         <v>4</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="D8" s="3">
         <v>6</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F8" s="3">
         <v>2</v>
@@ -2974,19 +6042,19 @@
     </row>
     <row r="9" s="3" customFormat="1" ht="16.8" spans="1:12">
       <c r="A9" s="16" t="s">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="B9" s="3">
         <v>5</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>78</v>
+        <v>132</v>
       </c>
       <c r="D9" s="3">
         <v>6</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F9" s="3">
         <v>2</v>
@@ -3014,19 +6082,19 @@
     </row>
     <row r="10" s="3" customFormat="1" ht="16.8" spans="1:12">
       <c r="A10" s="16" t="s">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="B10" s="3">
         <v>6</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="D10" s="3">
         <v>6</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F10" s="3">
         <v>2</v>
@@ -3054,19 +6122,19 @@
     </row>
     <row r="11" s="3" customFormat="1" ht="16.8" spans="1:12">
       <c r="A11" s="16" t="s">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="B11" s="3">
         <v>7</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="D11" s="3">
         <v>6</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F11" s="3">
         <v>3</v>
@@ -3094,19 +6162,19 @@
     </row>
     <row r="12" s="3" customFormat="1" ht="16.8" spans="1:12">
       <c r="A12" s="16" t="s">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="B12" s="3">
         <v>8</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>81</v>
+        <v>135</v>
       </c>
       <c r="D12" s="3">
         <v>6</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F12" s="3">
         <v>3</v>
@@ -3134,19 +6202,19 @@
     </row>
     <row r="13" s="3" customFormat="1" ht="16.8" spans="1:12">
       <c r="A13" s="16" t="s">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="B13" s="3">
         <v>9</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>82</v>
+        <v>136</v>
       </c>
       <c r="D13" s="3">
         <v>6</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F13" s="3">
         <v>3</v>
@@ -3174,19 +6242,19 @@
     </row>
     <row r="14" s="3" customFormat="1" ht="14.25" spans="1:12">
       <c r="A14" s="16" t="s">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="B14" s="3">
         <v>10</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>83</v>
+        <v>137</v>
       </c>
       <c r="D14" s="3">
         <v>6</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F14" s="3">
         <v>1</v>
@@ -3202,7 +6270,7 @@
         <v>30000</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="K14" s="3">
         <v>1</v>
@@ -3213,19 +6281,19 @@
     </row>
     <row r="15" s="3" customFormat="1" ht="14.25" spans="1:12">
       <c r="A15" s="16" t="s">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="B15" s="3">
         <v>11</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>85</v>
+        <v>139</v>
       </c>
       <c r="D15" s="3">
         <v>6</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F15" s="3">
         <v>1</v>
@@ -3241,7 +6309,7 @@
         <v>36000</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="K15" s="3">
         <v>1</v>
@@ -3252,19 +6320,19 @@
     </row>
     <row r="16" s="3" customFormat="1" ht="14.25" spans="1:12">
       <c r="A16" s="16" t="s">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="B16" s="3">
         <v>12</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>86</v>
+        <v>140</v>
       </c>
       <c r="D16" s="3">
         <v>6</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F16" s="3">
         <v>1</v>
@@ -3280,7 +6348,7 @@
         <v>42000</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="K16" s="3">
         <v>1</v>
@@ -3291,19 +6359,19 @@
     </row>
     <row r="17" s="3" customFormat="1" ht="14.25" spans="1:12">
       <c r="A17" s="16" t="s">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="B17" s="3">
         <v>13</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>87</v>
+        <v>141</v>
       </c>
       <c r="D17" s="3">
         <v>6</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F17" s="3">
         <v>4</v>
@@ -3319,7 +6387,7 @@
         <v>10000</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="K17" s="3">
         <v>1</v>
@@ -3330,19 +6398,19 @@
     </row>
     <row r="18" s="3" customFormat="1" ht="14.25" spans="1:12">
       <c r="A18" s="16" t="s">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="B18" s="3">
         <v>14</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>88</v>
+        <v>142</v>
       </c>
       <c r="D18" s="3">
         <v>6</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F18" s="3">
         <v>4</v>
@@ -3358,7 +6426,7 @@
         <v>12000</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="K18" s="3">
         <v>1</v>
@@ -3369,19 +6437,19 @@
     </row>
     <row r="19" s="3" customFormat="1" ht="14.25" spans="1:12">
       <c r="A19" s="16" t="s">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="B19" s="3">
         <v>15</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="D19" s="3">
         <v>6</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F19" s="3">
         <v>4</v>
@@ -3397,7 +6465,7 @@
         <v>14000</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="K19" s="3">
         <v>1</v>
@@ -3408,19 +6476,19 @@
     </row>
     <row r="20" s="3" customFormat="1" ht="14.25" spans="1:12">
       <c r="A20" s="16" t="s">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="B20" s="3">
         <v>101</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D20" s="3">
         <v>6</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F20" s="3">
         <v>1</v>
@@ -3436,7 +6504,7 @@
         <v>20000</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="K20" s="3">
         <v>1</v>
@@ -3447,19 +6515,19 @@
     </row>
     <row r="21" s="3" customFormat="1" ht="14.25" spans="1:12">
       <c r="A21" s="16" t="s">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="B21" s="3">
         <v>102</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="D21" s="3">
         <v>6</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F21" s="3">
         <v>1</v>
@@ -3475,7 +6543,7 @@
         <v>24000</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="K21" s="3">
         <v>1</v>
@@ -3492,13 +6560,13 @@
         <v>103</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="D22" s="4">
         <v>6</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F22" s="4">
         <v>1</v>
@@ -3514,7 +6582,7 @@
         <v>28000</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="K22" s="4">
         <v>1</v>
@@ -3525,194 +6593,194 @@
     </row>
     <row r="23" s="3" customFormat="1" ht="14.25" spans="1:12">
       <c r="A23" s="16" t="s">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="B23" s="3">
         <v>201</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="D23" s="3">
         <v>1</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" s="3" customFormat="1" ht="14.25" spans="1:12">
       <c r="A24" s="16" t="s">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="B24" s="3">
         <v>202</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="D24" s="3">
         <v>1</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25" s="3" customFormat="1" ht="14.25" spans="1:12">
       <c r="A25" s="16" t="s">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="B25" s="3">
         <v>203</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>92</v>
+        <v>146</v>
       </c>
       <c r="D25" s="3">
         <v>2</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
     </row>
     <row r="26" s="3" customFormat="1" ht="14.25" spans="1:14">
       <c r="A26" s="16" t="s">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="B26" s="3">
         <v>204</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>93</v>
+        <v>147</v>
       </c>
       <c r="D26" s="19">
         <v>2</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="J26" s="19" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="M26" s="19"/>
       <c r="N26" s="19"/>
     </row>
     <row r="27" s="5" customFormat="1" ht="14.25" spans="1:14">
       <c r="A27" s="20" t="s">
-        <v>94</v>
+        <v>148</v>
       </c>
       <c r="B27" s="5">
         <v>205</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>95</v>
+        <v>149</v>
       </c>
       <c r="D27" s="21">
         <v>3</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="J27" s="21" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="M27" s="21"/>
       <c r="N27" s="21"/>
@@ -3993,19 +7061,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>96</v>
+        <v>150</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>97</v>
+        <v>151</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>98</v>
+        <v>152</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>99</v>
+        <v>153</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>100</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4013,16 +7081,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>101</v>
+        <v>155</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>102</v>
+        <v>156</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>103</v>
+        <v>157</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>104</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4030,16 +7098,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>105</v>
+        <v>159</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>107</v>
+        <v>161</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>108</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4050,13 +7118,13 @@
         <v>18</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>109</v>
+        <v>163</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>110</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4064,16 +7132,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>111</v>
+        <v>165</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>112</v>
+        <v>166</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>113</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4081,16 +7149,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>72</v>
+        <v>126</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>114</v>
+        <v>168</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>115</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4102,10 +7170,10 @@
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>116</v>
+        <v>170</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>117</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -4113,16 +7181,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>118</v>
+        <v>172</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>119</v>
+        <v>173</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>120</v>
+        <v>174</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>121</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -4130,16 +7198,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>122</v>
+        <v>176</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>119</v>
+        <v>173</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>123</v>
+        <v>177</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>124</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -4147,16 +7215,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>125</v>
+        <v>179</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>119</v>
+        <v>173</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>126</v>
+        <v>180</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>127</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -4164,16 +7232,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>128</v>
+        <v>182</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>119</v>
+        <v>173</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>129</v>
+        <v>183</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>130</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -4181,16 +7249,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>131</v>
+        <v>185</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>119</v>
+        <v>173</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>132</v>
+        <v>186</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>133</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4198,13 +7266,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>134</v>
+        <v>188</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>119</v>
+        <v>173</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>135</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -4212,10 +7280,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>136</v>
+        <v>190</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>137</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -4223,10 +7291,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>138</v>
+        <v>192</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>137</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -4234,10 +7302,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>139</v>
+        <v>193</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>137</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -4245,10 +7313,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>140</v>
+        <v>194</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>137</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -4256,10 +7324,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>137</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -4267,10 +7335,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>141</v>
+        <v>195</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>137</v>
+        <v>191</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -4278,10 +7346,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>142</v>
+        <v>196</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>119</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -4289,10 +7357,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>143</v>
+        <v>197</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>119</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -4300,10 +7368,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>119</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -4311,10 +7379,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>145</v>
+        <v>199</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>119</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -4322,10 +7390,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>146</v>
+        <v>200</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>119</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -4333,10 +7401,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>147</v>
+        <v>201</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>119</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -4344,16 +7412,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>148</v>
+        <v>202</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>149</v>
+        <v>203</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>150</v>
+        <v>204</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>75</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -4361,16 +7429,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>151</v>
+        <v>205</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>152</v>
+        <v>206</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>153</v>
+        <v>207</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>154</v>
+        <v>208</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -4378,16 +7446,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>155</v>
+        <v>209</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>119</v>
+        <v>173</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>156</v>
+        <v>210</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>157</v>
+        <v>211</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -4395,16 +7463,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>158</v>
+        <v>212</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>119</v>
+        <v>173</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>159</v>
+        <v>213</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>160</v>
+        <v>214</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -4415,10 +7483,10 @@
         <v>21</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>161</v>
+        <v>215</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>162</v>
+        <v>216</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -4429,13 +7497,13 @@
         <v>20</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>152</v>
+        <v>206</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>163</v>
+        <v>217</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>164</v>
+        <v>218</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -4443,16 +7511,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>165</v>
+        <v>219</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>166</v>
+        <v>220</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>167</v>
+        <v>221</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -4460,16 +7528,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>168</v>
+        <v>222</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>169</v>
+        <v>223</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>170</v>
+        <v>224</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>169</v>
+        <v>223</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -4477,16 +7545,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>171</v>
+        <v>225</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>172</v>
+        <v>226</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>173</v>
+        <v>227</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>172</v>
+        <v>226</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -4494,16 +7562,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>174</v>
+        <v>228</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>119</v>
+        <v>173</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>175</v>
+        <v>229</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>164</v>
+        <v>218</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -4511,14 +7579,14 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>176</v>
+        <v>230</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>177</v>
+        <v>231</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>178</v>
+        <v>232</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -4526,11 +7594,11 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>179</v>
+        <v>233</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
-        <v>180</v>
+        <v>234</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -4538,16 +7606,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>181</v>
+        <v>235</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>119</v>
+        <v>173</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>182</v>
+        <v>236</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>183</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
